--- a/output/full_BA_shares_in_HS_occs.xlsx
+++ b/output/full_BA_shares_in_HS_occs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="446">
   <si>
     <t>rank</t>
   </si>
@@ -1348,6 +1348,9 @@
   </si>
   <si>
     <t>pct</t>
+  </si>
+  <si>
+    <t>incwage</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H865"/>
+  <dimension ref="A1:I865"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1419,6 +1422,9 @@
       <c r="H1" t="s">
         <v>444</v>
       </c>
+      <c r="I1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -1445,6 +1451,9 @@
       <c r="H2" s="0">
         <v>0.09649088978767395</v>
       </c>
+      <c r="I2" s="0">
+        <v>45593</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
@@ -1471,6 +1480,9 @@
       <c r="H3" s="0">
         <v>0.22137424349784851</v>
       </c>
+      <c r="I3" s="0">
+        <v>50522</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -1497,6 +1509,9 @@
       <c r="H4" s="0">
         <v>0.57459890842437744</v>
       </c>
+      <c r="I4" s="0">
+        <v>86473</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -1523,6 +1538,9 @@
       <c r="H5" s="0">
         <v>0.1075359508395195</v>
       </c>
+      <c r="I5" s="0">
+        <v>90000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -1549,6 +1567,9 @@
       <c r="H6" s="0">
         <v>0.08049667626619339</v>
       </c>
+      <c r="I6" s="0">
+        <v>67805</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -1575,6 +1596,9 @@
       <c r="H7" s="0">
         <v>0.29043376445770264</v>
       </c>
+      <c r="I7" s="0">
+        <v>80375</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -1601,6 +1625,9 @@
       <c r="H8" s="0">
         <v>0.4332859218120575</v>
       </c>
+      <c r="I8" s="0">
+        <v>97282</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -1627,6 +1654,9 @@
       <c r="H9" s="0">
         <v>0.19578363001346588</v>
       </c>
+      <c r="I9" s="0">
+        <v>108091</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -1653,6 +1683,9 @@
       <c r="H10" s="0">
         <v>0.11037919670343399</v>
       </c>
+      <c r="I10" s="0">
+        <v>25031</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
@@ -1679,6 +1712,9 @@
       <c r="H11" s="0">
         <v>0.26547619700431824</v>
       </c>
+      <c r="I11" s="0">
+        <v>23381</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -1705,6 +1741,9 @@
       <c r="H12" s="0">
         <v>0.47805890440940857</v>
       </c>
+      <c r="I12" s="0">
+        <v>25719</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -1731,6 +1770,9 @@
       <c r="H13" s="0">
         <v>0.14608567953109741</v>
       </c>
+      <c r="I13" s="0">
+        <v>22964</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
@@ -1757,6 +1799,9 @@
       <c r="H14" s="0">
         <v>0.096517160534858704</v>
       </c>
+      <c r="I14" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
@@ -1783,6 +1828,9 @@
       <c r="H15" s="0">
         <v>0.22754144668579102</v>
       </c>
+      <c r="I15" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
@@ -1809,6 +1857,9 @@
       <c r="H16" s="0">
         <v>0.44557255506515503</v>
       </c>
+      <c r="I16" s="0">
+        <v>62323</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
@@ -1835,6 +1886,9 @@
       <c r="H17" s="0">
         <v>0.23036885261535645</v>
       </c>
+      <c r="I17" s="0">
+        <v>81068</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
@@ -1861,6 +1915,9 @@
       <c r="H18" s="0">
         <v>0.13774903118610382</v>
       </c>
+      <c r="I18" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
@@ -1887,6 +1944,9 @@
       <c r="H19" s="0">
         <v>0.31656020879745483</v>
       </c>
+      <c r="I19" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
@@ -1913,6 +1973,9 @@
       <c r="H20" s="0">
         <v>0.46780261397361755</v>
       </c>
+      <c r="I20" s="0">
+        <v>44192</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
@@ -1939,6 +2002,9 @@
       <c r="H21" s="0">
         <v>0.077888153493404388</v>
       </c>
+      <c r="I21" s="0">
+        <v>45398</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
@@ -1965,6 +2031,9 @@
       <c r="H22" s="0">
         <v>0.12618939578533173</v>
       </c>
+      <c r="I22" s="0">
+        <v>20668</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
@@ -1991,6 +2060,9 @@
       <c r="H23" s="0">
         <v>0.32296228408813477</v>
       </c>
+      <c r="I23" s="0">
+        <v>24113</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
@@ -2017,6 +2089,9 @@
       <c r="H24" s="0">
         <v>0.40955546498298645</v>
       </c>
+      <c r="I24" s="0">
+        <v>23966</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
@@ -2043,6 +2118,9 @@
       <c r="H25" s="0">
         <v>0.14129285514354706</v>
       </c>
+      <c r="I25" s="0">
+        <v>26409</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
@@ -2069,6 +2147,9 @@
       <c r="H26" s="0">
         <v>0.13449367880821228</v>
       </c>
+      <c r="I26" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
@@ -2095,6 +2176,9 @@
       <c r="H27" s="0">
         <v>0.32950460910797119</v>
       </c>
+      <c r="I27" s="0">
+        <v>53966</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
@@ -2121,6 +2205,9 @@
       <c r="H28" s="0">
         <v>0.43053042888641357</v>
       </c>
+      <c r="I28" s="0">
+        <v>68893</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
@@ -2147,6 +2234,9 @@
       <c r="H29" s="0">
         <v>0.10547127574682236</v>
       </c>
+      <c r="I29" s="0">
+        <v>74634</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
@@ -2173,6 +2263,9 @@
       <c r="H30" s="0">
         <v>0.15369246900081635</v>
       </c>
+      <c r="I30" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
@@ -2199,6 +2292,9 @@
       <c r="H31" s="0">
         <v>0.27488166093826294</v>
       </c>
+      <c r="I31" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
@@ -2225,6 +2321,9 @@
       <c r="H32" s="0">
         <v>0.46779164671897888</v>
       </c>
+      <c r="I32" s="0">
+        <v>93525</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
@@ -2251,6 +2350,9 @@
       <c r="H33" s="0">
         <v>0.10363420099020004</v>
       </c>
+      <c r="I33" s="0">
+        <v>117847</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
@@ -2277,6 +2379,9 @@
       <c r="H34" s="0">
         <v>0.16786283254623413</v>
       </c>
+      <c r="I34" s="0">
+        <v>49745</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
@@ -2303,6 +2408,9 @@
       <c r="H35" s="0">
         <v>0.22698792815208435</v>
       </c>
+      <c r="I35" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
@@ -2329,6 +2437,9 @@
       <c r="H36" s="0">
         <v>0.45881751179695129</v>
       </c>
+      <c r="I36" s="0">
+        <v>79320</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
@@ -2355,6 +2466,9 @@
       <c r="H37" s="0">
         <v>0.14633174240589142</v>
       </c>
+      <c r="I37" s="0">
+        <v>97282</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
@@ -2381,6 +2495,9 @@
       <c r="H38" s="0">
         <v>0.13651327788829803</v>
       </c>
+      <c r="I38" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
@@ -2407,6 +2524,9 @@
       <c r="H39" s="0">
         <v>0.31982094049453735</v>
       </c>
+      <c r="I39" s="0">
+        <v>51670</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
@@ -2433,6 +2553,9 @@
       <c r="H40" s="0">
         <v>0.42563912272453308</v>
       </c>
+      <c r="I40" s="0">
+        <v>70144</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
@@ -2459,6 +2582,9 @@
       <c r="H41" s="0">
         <v>0.11802666634321213</v>
       </c>
+      <c r="I41" s="0">
+        <v>82672</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
@@ -2485,6 +2611,9 @@
       <c r="H42" s="0">
         <v>0.12974244356155396</v>
       </c>
+      <c r="I42" s="0">
+        <v>58453</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
@@ -2511,6 +2640,9 @@
       <c r="H43" s="0">
         <v>0.37496295571327209</v>
       </c>
+      <c r="I43" s="0">
+        <v>61000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
@@ -2537,6 +2669,9 @@
       <c r="H44" s="0">
         <v>0.40116697549819946</v>
       </c>
+      <c r="I44" s="0">
+        <v>65448</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
@@ -2563,6 +2698,9 @@
       <c r="H45" s="0">
         <v>0.094127640128135681</v>
       </c>
+      <c r="I45" s="0">
+        <v>70000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
@@ -2589,6 +2727,9 @@
       <c r="H46" s="0">
         <v>0.12773524224758148</v>
       </c>
+      <c r="I46" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
@@ -2615,6 +2756,9 @@
       <c r="H47" s="0">
         <v>0.27592533826828003</v>
       </c>
+      <c r="I47" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
@@ -2641,6 +2785,9 @@
       <c r="H48" s="0">
         <v>0.35602319240570068</v>
       </c>
+      <c r="I48" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
@@ -2667,6 +2814,9 @@
       <c r="H49" s="0">
         <v>0.24031622707843781</v>
       </c>
+      <c r="I49" s="0">
+        <v>85341</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
@@ -2693,6 +2843,9 @@
       <c r="H50" s="0">
         <v>0.1358489990234375</v>
       </c>
+      <c r="I50" s="0">
+        <v>42000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
@@ -2719,6 +2872,9 @@
       <c r="H51" s="0">
         <v>0.37332585453987122</v>
       </c>
+      <c r="I51" s="0">
+        <v>44317</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
@@ -2745,6 +2901,9 @@
       <c r="H52" s="0">
         <v>0.39907658100128174</v>
       </c>
+      <c r="I52" s="0">
+        <v>49858</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
@@ -2771,6 +2930,9 @@
       <c r="H53" s="0">
         <v>0.091748572885990143</v>
       </c>
+      <c r="I53" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
@@ -2797,6 +2959,9 @@
       <c r="H54" s="0">
         <v>0.14096066355705261</v>
       </c>
+      <c r="I54" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
@@ -2823,6 +2988,9 @@
       <c r="H55" s="0">
         <v>0.27452933788299561</v>
       </c>
+      <c r="I55" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
@@ -2849,6 +3017,9 @@
       <c r="H56" s="0">
         <v>0.40553343296051025</v>
       </c>
+      <c r="I56" s="0">
+        <v>66000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
@@ -2875,6 +3046,9 @@
       <c r="H57" s="0">
         <v>0.17897658050060272</v>
       </c>
+      <c r="I57" s="0">
+        <v>81068</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -2901,6 +3075,9 @@
       <c r="H58" s="0">
         <v>0.15415926277637482</v>
       </c>
+      <c r="I58" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
@@ -2927,6 +3104,9 @@
       <c r="H59" s="0">
         <v>0.30691424012184143</v>
       </c>
+      <c r="I59" s="0">
+        <v>37167</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
@@ -2953,6 +3133,9 @@
       <c r="H60" s="0">
         <v>0.37990313768386841</v>
       </c>
+      <c r="I60" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
@@ -2979,6 +3162,9 @@
       <c r="H61" s="0">
         <v>0.15902337431907654</v>
       </c>
+      <c r="I61" s="0">
+        <v>54000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
@@ -3005,6 +3191,9 @@
       <c r="H62" s="0">
         <v>0.12659797072410583</v>
       </c>
+      <c r="I62" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
@@ -3031,6 +3220,9 @@
       <c r="H63" s="0">
         <v>0.45949792861938477</v>
       </c>
+      <c r="I63" s="0">
+        <v>74634</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
@@ -3057,6 +3249,9 @@
       <c r="H64" s="0">
         <v>0.34153181314468384</v>
       </c>
+      <c r="I64" s="0">
+        <v>83820</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
@@ -3083,6 +3278,9 @@
       <c r="H65" s="0">
         <v>0.072372272610664368</v>
       </c>
+      <c r="I65" s="0">
+        <v>94000</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
@@ -3109,6 +3307,9 @@
       <c r="H66" s="0">
         <v>0.14192503690719604</v>
       </c>
+      <c r="I66" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
@@ -3135,6 +3336,9 @@
       <c r="H67" s="0">
         <v>0.40816572308540344</v>
       </c>
+      <c r="I67" s="0">
+        <v>48225</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
@@ -3161,6 +3365,9 @@
       <c r="H68" s="0">
         <v>0.37383192777633667</v>
       </c>
+      <c r="I68" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
@@ -3187,6 +3394,9 @@
       <c r="H69" s="0">
         <v>0.076077334582805634</v>
       </c>
+      <c r="I69" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
@@ -3213,6 +3423,9 @@
       <c r="H70" s="0">
         <v>0.12828478217124939</v>
       </c>
+      <c r="I70" s="0">
+        <v>64855</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
@@ -3239,6 +3452,9 @@
       <c r="H71" s="0">
         <v>0.3970111608505249</v>
       </c>
+      <c r="I71" s="0">
+        <v>84986</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
@@ -3265,6 +3481,9 @@
       <c r="H72" s="0">
         <v>0.34126186370849609</v>
       </c>
+      <c r="I72" s="0">
+        <v>108091</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
@@ -3291,6 +3510,9 @@
       <c r="H73" s="0">
         <v>0.13344220817089081</v>
       </c>
+      <c r="I73" s="0">
+        <v>123224</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
@@ -3317,6 +3539,9 @@
       <c r="H74" s="0">
         <v>0.18582195043563843</v>
       </c>
+      <c r="I74" s="0">
+        <v>52818</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
@@ -3343,6 +3568,9 @@
       <c r="H75" s="0">
         <v>0.29005399346351624</v>
       </c>
+      <c r="I75" s="0">
+        <v>62323</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
@@ -3369,6 +3597,9 @@
       <c r="H76" s="0">
         <v>0.43633952736854553</v>
       </c>
+      <c r="I76" s="0">
+        <v>93525</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
@@ -3395,6 +3626,9 @@
       <c r="H77" s="0">
         <v>0.087784543633460999</v>
       </c>
+      <c r="I77" s="0">
+        <v>116713</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
@@ -3421,6 +3655,9 @@
       <c r="H78" s="0">
         <v>0.16787384450435638</v>
       </c>
+      <c r="I78" s="0">
+        <v>42484</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
@@ -3447,6 +3684,9 @@
       <c r="H79" s="0">
         <v>0.35509154200553894</v>
       </c>
+      <c r="I79" s="0">
+        <v>46000</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
@@ -3473,6 +3713,9 @@
       <c r="H80" s="0">
         <v>0.39876541495323181</v>
       </c>
+      <c r="I80" s="0">
+        <v>70144</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
@@ -3499,6 +3742,9 @@
       <c r="H81" s="0">
         <v>0.078269191086292267</v>
       </c>
+      <c r="I81" s="0">
+        <v>75664</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
@@ -3525,6 +3771,9 @@
       <c r="H82" s="0">
         <v>0.16134169697761536</v>
       </c>
+      <c r="I82" s="0">
+        <v>44000</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
@@ -3551,6 +3800,9 @@
       <c r="H83" s="0">
         <v>0.30771860480308533</v>
       </c>
+      <c r="I83" s="0">
+        <v>45398</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
@@ -3577,6 +3829,9 @@
       <c r="H84" s="0">
         <v>0.36341965198516846</v>
       </c>
+      <c r="I84" s="0">
+        <v>81834</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
@@ -3603,6 +3858,9 @@
       <c r="H85" s="0">
         <v>0.16752001643180847</v>
       </c>
+      <c r="I85" s="0">
+        <v>129709</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
@@ -3629,6 +3887,9 @@
       <c r="H86" s="0">
         <v>0.21198517084121704</v>
       </c>
+      <c r="I86" s="0">
+        <v>28705</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
@@ -3655,6 +3916,9 @@
       <c r="H87" s="0">
         <v>0.25238814949989319</v>
       </c>
+      <c r="I87" s="0">
+        <v>28057</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
@@ -3681,6 +3945,9 @@
       <c r="H88" s="0">
         <v>0.4061700701713562</v>
       </c>
+      <c r="I88" s="0">
+        <v>29185</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
@@ -3707,6 +3974,9 @@
       <c r="H89" s="0">
         <v>0.12945659458637238</v>
       </c>
+      <c r="I89" s="0">
+        <v>28000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
@@ -3733,6 +4003,9 @@
       <c r="H90" s="0">
         <v>0.17642569541931152</v>
       </c>
+      <c r="I90" s="0">
+        <v>45398</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
@@ -3759,6 +4032,9 @@
       <c r="H91" s="0">
         <v>0.34976193308830261</v>
       </c>
+      <c r="I91" s="0">
+        <v>55803</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
@@ -3785,6 +4061,9 @@
       <c r="H92" s="0">
         <v>0.34725403785705566</v>
       </c>
+      <c r="I92" s="0">
+        <v>67988</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
@@ -3811,6 +4090,9 @@
       <c r="H93" s="0">
         <v>0.12655834853649139</v>
       </c>
+      <c r="I93" s="0">
+        <v>87679</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
@@ -3837,6 +4119,9 @@
       <c r="H94" s="0">
         <v>0.20039390027523041</v>
       </c>
+      <c r="I94" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
@@ -3863,6 +4148,9 @@
       <c r="H95" s="0">
         <v>0.33970731496810913</v>
       </c>
+      <c r="I95" s="0">
+        <v>48633</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
@@ -3889,6 +4177,9 @@
       <c r="H96" s="0">
         <v>0.36051207780838013</v>
       </c>
+      <c r="I96" s="0">
+        <v>67988</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
@@ -3915,6 +4206,9 @@
       <c r="H97" s="0">
         <v>0.099386699497699738</v>
       </c>
+      <c r="I97" s="0">
+        <v>65000</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
@@ -3941,6 +4235,9 @@
       <c r="H98" s="0">
         <v>0.22878147661685944</v>
       </c>
+      <c r="I98" s="0">
+        <v>29000</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
@@ -3967,6 +4264,9 @@
       <c r="H99" s="0">
         <v>0.2698686420917511</v>
       </c>
+      <c r="I99" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
@@ -3993,6 +4293,9 @@
       <c r="H100" s="0">
         <v>0.40088659524917603</v>
       </c>
+      <c r="I100" s="0">
+        <v>79320</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
@@ -4019,6 +4322,9 @@
       <c r="H101" s="0">
         <v>0.10046329349279404</v>
       </c>
+      <c r="I101" s="0">
+        <v>97598</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
@@ -4045,6 +4351,9 @@
       <c r="H102" s="0">
         <v>0.18711815774440765</v>
       </c>
+      <c r="I102" s="0">
+        <v>40793</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
@@ -4071,6 +4380,9 @@
       <c r="H103" s="0">
         <v>0.3686923086643219</v>
       </c>
+      <c r="I103" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
@@ -4097,6 +4409,9 @@
       <c r="H104" s="0">
         <v>0.32435014843940735</v>
       </c>
+      <c r="I104" s="0">
+        <v>48000</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
@@ -4123,6 +4438,9 @@
       <c r="H105" s="0">
         <v>0.1198393851518631</v>
       </c>
+      <c r="I105" s="0">
+        <v>55000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
@@ -4149,6 +4467,9 @@
       <c r="H106" s="0">
         <v>0.19935959577560425</v>
       </c>
+      <c r="I106" s="0">
+        <v>44192</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
@@ -4175,6 +4496,9 @@
       <c r="H107" s="0">
         <v>0.33050256967544556</v>
       </c>
+      <c r="I107" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
@@ -4201,6 +4525,9 @@
       <c r="H108" s="0">
         <v>0.3403870165348053</v>
       </c>
+      <c r="I108" s="0">
+        <v>56000</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
@@ -4227,6 +4554,9 @@
       <c r="H109" s="0">
         <v>0.1297508031129837</v>
       </c>
+      <c r="I109" s="0">
+        <v>120563</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
@@ -4253,6 +4583,9 @@
       <c r="H110" s="0">
         <v>0.22706831991672516</v>
       </c>
+      <c r="I110" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
@@ -4279,6 +4612,9 @@
       <c r="H111" s="0">
         <v>0.33894568681716919</v>
       </c>
+      <c r="I111" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
@@ -4305,6 +4641,9 @@
       <c r="H112" s="0">
         <v>0.3300730288028717</v>
       </c>
+      <c r="I112" s="0">
+        <v>70259</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
@@ -4331,6 +4670,9 @@
       <c r="H113" s="0">
         <v>0.10391297191381454</v>
       </c>
+      <c r="I113" s="0">
+        <v>85341</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
@@ -4357,6 +4699,9 @@
       <c r="H114" s="0">
         <v>0.18972139060497284</v>
       </c>
+      <c r="I114" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
@@ -4383,6 +4728,9 @@
       <c r="H115" s="0">
         <v>0.39226427674293518</v>
       </c>
+      <c r="I115" s="0">
+        <v>40793</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
@@ -4409,6 +4757,9 @@
       <c r="H116" s="0">
         <v>0.30692023038864136</v>
       </c>
+      <c r="I116" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
@@ -4435,6 +4786,9 @@
       <c r="H117" s="0">
         <v>0.11109410971403122</v>
       </c>
+      <c r="I117" s="0">
+        <v>56207</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
@@ -4461,6 +4815,9 @@
       <c r="H118" s="0">
         <v>0.24650809168815613</v>
       </c>
+      <c r="I118" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
@@ -4487,6 +4844,9 @@
       <c r="H119" s="0">
         <v>0.30156499147415161</v>
       </c>
+      <c r="I119" s="0">
+        <v>62004</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
@@ -4513,6 +4873,9 @@
       <c r="H120" s="0">
         <v>0.34317544102668762</v>
       </c>
+      <c r="I120" s="0">
+        <v>90651</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
@@ -4539,6 +4902,9 @@
       <c r="H121" s="0">
         <v>0.10875148326158524</v>
       </c>
+      <c r="I121" s="0">
+        <v>113314</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
@@ -4565,6 +4931,9 @@
       <c r="H122" s="0">
         <v>0.17718766629695892</v>
       </c>
+      <c r="I122" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
@@ -4591,6 +4960,9 @@
       <c r="H123" s="0">
         <v>0.46599894762039185</v>
       </c>
+      <c r="I123" s="0">
+        <v>59450</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
@@ -4617,6 +4989,9 @@
       <c r="H124" s="0">
         <v>0.27978387475013733</v>
       </c>
+      <c r="I124" s="0">
+        <v>64298</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
@@ -4643,6 +5018,9 @@
       <c r="H125" s="0">
         <v>0.077029518783092499</v>
       </c>
+      <c r="I125" s="0">
+        <v>70259</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
@@ -4669,6 +5047,9 @@
       <c r="H126" s="0">
         <v>0.23094062507152557</v>
       </c>
+      <c r="I126" s="0">
+        <v>39748</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
@@ -4695,6 +5076,9 @@
       <c r="H127" s="0">
         <v>0.35824400186538696</v>
       </c>
+      <c r="I127" s="0">
+        <v>42484</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
@@ -4721,6 +5105,9 @@
       <c r="H128" s="0">
         <v>0.33623388409614563</v>
       </c>
+      <c r="I128" s="0">
+        <v>42086</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
@@ -4747,6 +5134,9 @@
       <c r="H129" s="0">
         <v>0.07458147406578064</v>
       </c>
+      <c r="I129" s="0">
+        <v>39773</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
@@ -4773,6 +5163,9 @@
       <c r="H130" s="0">
         <v>0.2578909695148468</v>
       </c>
+      <c r="I130" s="0">
+        <v>23381</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
@@ -4799,6 +5192,9 @@
       <c r="H131" s="0">
         <v>0.28945481777191162</v>
       </c>
+      <c r="I131" s="0">
+        <v>13779</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
@@ -4825,6 +5221,9 @@
       <c r="H132" s="0">
         <v>0.29375895857810974</v>
       </c>
+      <c r="I132" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
@@ -4851,6 +5250,9 @@
       <c r="H133" s="0">
         <v>0.15889526903629303</v>
       </c>
+      <c r="I133" s="0">
+        <v>71340</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
@@ -4877,6 +5279,9 @@
       <c r="H134" s="0">
         <v>0.25754469633102417</v>
       </c>
+      <c r="I134" s="0">
+        <v>29462</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
@@ -4903,6 +5308,9 @@
       <c r="H135" s="0">
         <v>0.34424033761024475</v>
       </c>
+      <c r="I135" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
@@ -4929,6 +5337,9 @@
       <c r="H136" s="0">
         <v>0.30899074673652649</v>
       </c>
+      <c r="I136" s="0">
+        <v>41615</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
@@ -4955,6 +5366,9 @@
       <c r="H137" s="0">
         <v>0.089224211871623993</v>
       </c>
+      <c r="I137" s="0">
+        <v>48683</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
@@ -4981,6 +5395,9 @@
       <c r="H138" s="0">
         <v>0.23747172951698303</v>
       </c>
+      <c r="I138" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
@@ -5007,6 +5424,9 @@
       <c r="H139" s="0">
         <v>0.3635488748550415</v>
       </c>
+      <c r="I139" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
@@ -5033,6 +5453,9 @@
       <c r="H140" s="0">
         <v>0.31324735283851624</v>
       </c>
+      <c r="I140" s="0">
+        <v>62693</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
@@ -5059,6 +5482,9 @@
       <c r="H141" s="0">
         <v>0.085732035338878632</v>
       </c>
+      <c r="I141" s="0">
+        <v>80000</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
@@ -5085,6 +5511,9 @@
       <c r="H142" s="0">
         <v>0.22436997294425964</v>
       </c>
+      <c r="I142" s="0">
+        <v>47931</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
@@ -5111,6 +5540,9 @@
       <c r="H143" s="0">
         <v>0.39101535081863403</v>
       </c>
+      <c r="I143" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
@@ -5137,6 +5569,9 @@
       <c r="H144" s="0">
         <v>0.29324555397033691</v>
       </c>
+      <c r="I144" s="0">
+        <v>61960</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
@@ -5163,6 +5598,9 @@
       <c r="H145" s="0">
         <v>0.091369107365608215</v>
       </c>
+      <c r="I145" s="0">
+        <v>79496</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
@@ -5189,6 +5627,9 @@
       <c r="H146" s="0">
         <v>0.21770383417606354</v>
       </c>
+      <c r="I146" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
@@ -5215,6 +5656,9 @@
       <c r="H147" s="0">
         <v>0.45088815689086914</v>
       </c>
+      <c r="I147" s="0">
+        <v>48225</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
@@ -5241,6 +5685,9 @@
       <c r="H148" s="0">
         <v>0.27846851944923401</v>
       </c>
+      <c r="I148" s="0">
+        <v>49632</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
@@ -5267,6 +5714,9 @@
       <c r="H149" s="0">
         <v>0.052939489483833313</v>
       </c>
+      <c r="I149" s="0">
+        <v>54617</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
@@ -5293,6 +5743,9 @@
       <c r="H150" s="0">
         <v>0.30842137336730957</v>
       </c>
+      <c r="I150" s="0">
+        <v>32000</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
@@ -5319,6 +5772,9 @@
       <c r="H151" s="0">
         <v>0.30685621500015259</v>
       </c>
+      <c r="I151" s="0">
+        <v>30255</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
@@ -5345,6 +5801,9 @@
       <c r="H152" s="0">
         <v>0.33385506272315979</v>
       </c>
+      <c r="I152" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
@@ -5371,6 +5830,9 @@
       <c r="H153" s="0">
         <v>0.05086735263466835</v>
       </c>
+      <c r="I153" s="0">
+        <v>27557</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
@@ -5397,6 +5859,9 @@
       <c r="H154" s="0">
         <v>0.19677408039569855</v>
       </c>
+      <c r="I154" s="0">
+        <v>46000</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
@@ -5423,6 +5888,9 @@
       <c r="H155" s="0">
         <v>0.51245296001434326</v>
       </c>
+      <c r="I155" s="0">
+        <v>50479</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
@@ -5449,6 +5917,9 @@
       <c r="H156" s="0">
         <v>0.25498965382575989</v>
       </c>
+      <c r="I156" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
@@ -5475,6 +5946,9 @@
       <c r="H157" s="0">
         <v>0.035783268511295319</v>
       </c>
+      <c r="I157" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
@@ -5501,6 +5975,9 @@
       <c r="H158" s="0">
         <v>0.25381824374198914</v>
       </c>
+      <c r="I158" s="0">
+        <v>43255</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
@@ -5527,6 +6004,9 @@
       <c r="H159" s="0">
         <v>0.352375328540802</v>
       </c>
+      <c r="I159" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
@@ -5553,6 +6033,9 @@
       <c r="H160" s="0">
         <v>0.32385453581809998</v>
       </c>
+      <c r="I160" s="0">
+        <v>58411</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
@@ -5579,6 +6062,9 @@
       <c r="H161" s="0">
         <v>0.069951899349689484</v>
       </c>
+      <c r="I161" s="0">
+        <v>47592</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
@@ -5605,6 +6091,9 @@
       <c r="H162" s="0">
         <v>0.21460886299610138</v>
       </c>
+      <c r="I162" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
@@ -5631,6 +6120,9 @@
       <c r="H163" s="0">
         <v>0.41484802961349487</v>
       </c>
+      <c r="I163" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
@@ -5657,6 +6149,9 @@
       <c r="H164" s="0">
         <v>0.26563030481338501</v>
       </c>
+      <c r="I164" s="0">
+        <v>65000</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
@@ -5683,6 +6178,9 @@
       <c r="H165" s="0">
         <v>0.10491280257701874</v>
       </c>
+      <c r="I165" s="0">
+        <v>108091</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
@@ -5709,6 +6207,9 @@
       <c r="H166" s="0">
         <v>0.23886540532112122</v>
       </c>
+      <c r="I166" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
@@ -5735,6 +6236,9 @@
       <c r="H167" s="0">
         <v>0.44719746708869934</v>
       </c>
+      <c r="I167" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
@@ -5761,6 +6265,9 @@
       <c r="H168" s="0">
         <v>0.27440488338470459</v>
       </c>
+      <c r="I168" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
@@ -5787,6 +6294,9 @@
       <c r="H169" s="0">
         <v>0.039532221853733063</v>
       </c>
+      <c r="I169" s="0">
+        <v>58453</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
@@ -5813,6 +6323,9 @@
       <c r="H170" s="0">
         <v>0.26476189494132996</v>
       </c>
+      <c r="I170" s="0">
+        <v>41926</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
@@ -5839,6 +6352,9 @@
       <c r="H171" s="0">
         <v>0.43619048595428467</v>
       </c>
+      <c r="I171" s="0">
+        <v>43173</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
@@ -5865,6 +6381,9 @@
       <c r="H172" s="0">
         <v>0.2551322877407074</v>
       </c>
+      <c r="I172" s="0">
+        <v>51789</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
@@ -5891,6 +6410,9 @@
       <c r="H173" s="0">
         <v>0.043915342539548874</v>
       </c>
+      <c r="I173" s="0">
+        <v>49101</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
@@ -5917,6 +6439,9 @@
       <c r="H174" s="0">
         <v>0.25558480620384216</v>
       </c>
+      <c r="I174" s="0">
+        <v>40967</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
@@ -5943,6 +6468,9 @@
       <c r="H175" s="0">
         <v>0.39612635970115662</v>
       </c>
+      <c r="I175" s="0">
+        <v>44190</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
@@ -5969,6 +6497,9 @@
       <c r="H176" s="0">
         <v>0.2931177020072937</v>
       </c>
+      <c r="I176" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
@@ -5995,6 +6526,9 @@
       <c r="H177" s="0">
         <v>0.055171117186546326</v>
       </c>
+      <c r="I177" s="0">
+        <v>87554</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
@@ -6021,6 +6555,9 @@
       <c r="H178" s="0">
         <v>0.34982749819755554</v>
       </c>
+      <c r="I178" s="0">
+        <v>32724</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
@@ -6047,6 +6584,9 @@
       <c r="H179" s="0">
         <v>0.31231135129928589</v>
       </c>
+      <c r="I179" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
@@ -6073,6 +6613,9 @@
       <c r="H180" s="0">
         <v>0.28309616446495056</v>
       </c>
+      <c r="I180" s="0">
+        <v>41034</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
@@ -6099,6 +6642,9 @@
       <c r="H181" s="0">
         <v>0.054764986038208008</v>
       </c>
+      <c r="I181" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
@@ -6125,6 +6671,9 @@
       <c r="H182" s="0">
         <v>0.30043858289718628</v>
       </c>
+      <c r="I182" s="0">
+        <v>31002</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
@@ -6151,6 +6700,9 @@
       <c r="H183" s="0">
         <v>0.34793233871459961</v>
       </c>
+      <c r="I183" s="0">
+        <v>31002</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
@@ -6177,6 +6729,9 @@
       <c r="H184" s="0">
         <v>0.30858394503593445</v>
       </c>
+      <c r="I184" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
@@ -6203,6 +6758,9 @@
       <c r="H185" s="0">
         <v>0.043045111000537872</v>
       </c>
+      <c r="I185" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
@@ -6229,6 +6787,9 @@
       <c r="H186" s="0">
         <v>0.26268652081489563</v>
       </c>
+      <c r="I186" s="0">
+        <v>46000</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
@@ -6255,6 +6816,9 @@
       <c r="H187" s="0">
         <v>0.36482208967208862</v>
       </c>
+      <c r="I187" s="0">
+        <v>47592</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
@@ -6281,6 +6845,9 @@
       <c r="H188" s="0">
         <v>0.27138185501098633</v>
       </c>
+      <c r="I188" s="0">
+        <v>58559</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
@@ -6307,6 +6874,9 @@
       <c r="H189" s="0">
         <v>0.10110952705144882</v>
       </c>
+      <c r="I189" s="0">
+        <v>110000</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
@@ -6333,6 +6903,9 @@
       <c r="H190" s="0">
         <v>0.28282091021537781</v>
       </c>
+      <c r="I190" s="0">
+        <v>30000</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
@@ -6359,6 +6932,9 @@
       <c r="H191" s="0">
         <v>0.41839686036109924</v>
       </c>
+      <c r="I191" s="0">
+        <v>30000</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
@@ -6385,6 +6961,9 @@
       <c r="H192" s="0">
         <v>0.27347302436828613</v>
       </c>
+      <c r="I192" s="0">
+        <v>36261</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
@@ -6411,6 +6990,9 @@
       <c r="H193" s="0">
         <v>0.025309210643172264</v>
       </c>
+      <c r="I193" s="0">
+        <v>33994</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
@@ -6437,6 +7019,9 @@
       <c r="H194" s="0">
         <v>0.24220350384712219</v>
       </c>
+      <c r="I194" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
@@ -6463,6 +7048,9 @@
       <c r="H195" s="0">
         <v>0.44583791494369507</v>
       </c>
+      <c r="I195" s="0">
+        <v>42086</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
@@ -6489,6 +7077,9 @@
       <c r="H196" s="0">
         <v>0.2553354799747467</v>
       </c>
+      <c r="I196" s="0">
+        <v>45398</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
@@ -6515,6 +7106,9 @@
       <c r="H197" s="0">
         <v>0.05662309005856514</v>
       </c>
+      <c r="I197" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
@@ -6541,6 +7135,9 @@
       <c r="H198" s="0">
         <v>0.25265645980834961</v>
       </c>
+      <c r="I198" s="0">
+        <v>47592</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
@@ -6567,6 +7164,9 @@
       <c r="H199" s="0">
         <v>0.42633488774299622</v>
       </c>
+      <c r="I199" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
@@ -6593,6 +7193,9 @@
       <c r="H200" s="0">
         <v>0.26025116443634033</v>
       </c>
+      <c r="I200" s="0">
+        <v>46000</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
@@ -6619,6 +7222,9 @@
       <c r="H201" s="0">
         <v>0.06075746938586235</v>
       </c>
+      <c r="I201" s="0">
+        <v>48799</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
@@ -6645,6 +7251,9 @@
       <c r="H202" s="0">
         <v>0.24638903141021729</v>
       </c>
+      <c r="I202" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
@@ -6671,6 +7280,9 @@
       <c r="H203" s="0">
         <v>0.45209777355194092</v>
       </c>
+      <c r="I203" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
@@ -6697,6 +7309,9 @@
       <c r="H204" s="0">
         <v>0.24310357868671417</v>
       </c>
+      <c r="I204" s="0">
+        <v>49101</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
@@ -6723,6 +7338,9 @@
       <c r="H205" s="0">
         <v>0.058409623801708221</v>
       </c>
+      <c r="I205" s="0">
+        <v>58453</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
@@ -6749,6 +7367,9 @@
       <c r="H206" s="0">
         <v>0.38698095083236694</v>
       </c>
+      <c r="I206" s="0">
+        <v>43000</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
@@ -6775,6 +7396,9 @@
       <c r="H207" s="0">
         <v>0.29027083516120911</v>
       </c>
+      <c r="I207" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
@@ -6801,6 +7425,9 @@
       <c r="H208" s="0">
         <v>0.27011865377426147</v>
       </c>
+      <c r="I208" s="0">
+        <v>56207</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
@@ -6827,6 +7454,9 @@
       <c r="H209" s="0">
         <v>0.052629560232162476</v>
       </c>
+      <c r="I209" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
@@ -6853,6 +7483,9 @@
       <c r="H210" s="0">
         <v>0.25792607665061951</v>
       </c>
+      <c r="I210" s="0">
+        <v>35994</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
@@ -6879,6 +7512,9 @@
       <c r="H211" s="0">
         <v>0.44305887818336487</v>
       </c>
+      <c r="I211" s="0">
+        <v>38913</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
@@ -6905,6 +7541,9 @@
       <c r="H212" s="0">
         <v>0.24527157843112946</v>
       </c>
+      <c r="I212" s="0">
+        <v>41000</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
@@ -6931,6 +7570,9 @@
       <c r="H213" s="0">
         <v>0.053743477910757065</v>
       </c>
+      <c r="I213" s="0">
+        <v>44317</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
@@ -6957,6 +7599,9 @@
       <c r="H214" s="0">
         <v>0.29400524497032166</v>
       </c>
+      <c r="I214" s="0">
+        <v>26888</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
@@ -6983,6 +7628,9 @@
       <c r="H215" s="0">
         <v>0.31174927949905396</v>
       </c>
+      <c r="I215" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
@@ -7009,6 +7657,9 @@
       <c r="H216" s="0">
         <v>0.26293951272964478</v>
       </c>
+      <c r="I216" s="0">
+        <v>37500</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
@@ -7035,6 +7686,9 @@
       <c r="H217" s="0">
         <v>0.13130596280097961</v>
       </c>
+      <c r="I217" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
@@ -7061,6 +7715,9 @@
       <c r="H218" s="0">
         <v>0.2811005711555481</v>
       </c>
+      <c r="I218" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
@@ -7087,6 +7744,9 @@
       <c r="H219" s="0">
         <v>0.43024465441703796</v>
       </c>
+      <c r="I219" s="0">
+        <v>44370.5</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
@@ -7113,6 +7773,9 @@
       <c r="H220" s="0">
         <v>0.24582438170909882</v>
       </c>
+      <c r="I220" s="0">
+        <v>54391</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
@@ -7139,6 +7802,9 @@
       <c r="H221" s="0">
         <v>0.042830411344766617</v>
       </c>
+      <c r="I221" s="0">
+        <v>78187</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
@@ -7165,6 +7831,9 @@
       <c r="H222" s="0">
         <v>0.27252301573753357</v>
       </c>
+      <c r="I222" s="0">
+        <v>34589</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
@@ -7191,6 +7860,9 @@
       <c r="H223" s="0">
         <v>0.43914946913719177</v>
       </c>
+      <c r="I223" s="0">
+        <v>38527</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
@@ -7217,6 +7889,9 @@
       <c r="H224" s="0">
         <v>0.22887971997261047</v>
       </c>
+      <c r="I224" s="0">
+        <v>41075</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
@@ -7243,6 +7918,9 @@
       <c r="H225" s="0">
         <v>0.059447795152664185</v>
       </c>
+      <c r="I225" s="0">
+        <v>52124</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
@@ -7269,6 +7947,9 @@
       <c r="H226" s="0">
         <v>0.27906602621078491</v>
       </c>
+      <c r="I226" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
@@ -7295,6 +7976,9 @@
       <c r="H227" s="0">
         <v>0.428413987159729</v>
       </c>
+      <c r="I227" s="0">
+        <v>36743</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
@@ -7321,6 +8005,9 @@
       <c r="H228" s="0">
         <v>0.23073744773864746</v>
       </c>
+      <c r="I228" s="0">
+        <v>38913</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
@@ -7347,6 +8034,9 @@
       <c r="H229" s="0">
         <v>0.061782531440258026</v>
       </c>
+      <c r="I229" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
@@ -7373,6 +8063,9 @@
       <c r="H230" s="0">
         <v>0.2809213399887085</v>
       </c>
+      <c r="I230" s="0">
+        <v>58000</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
@@ -7399,6 +8092,9 @@
       <c r="H231" s="0">
         <v>0.41545379161834717</v>
       </c>
+      <c r="I231" s="0">
+        <v>62323</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
@@ -7425,6 +8121,9 @@
       <c r="H232" s="0">
         <v>0.24116729199886322</v>
       </c>
+      <c r="I232" s="0">
+        <v>62693</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
@@ -7451,6 +8150,9 @@
       <c r="H233" s="0">
         <v>0.062457557767629623</v>
       </c>
+      <c r="I233" s="0">
+        <v>69000</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
@@ -7477,6 +8179,9 @@
       <c r="H234" s="0">
         <v>0.29627546668052673</v>
       </c>
+      <c r="I234" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
@@ -7503,6 +8208,9 @@
       <c r="H235" s="0">
         <v>0.41151899099349976</v>
       </c>
+      <c r="I235" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
@@ -7529,6 +8237,9 @@
       <c r="H236" s="0">
         <v>0.24660615622997284</v>
       </c>
+      <c r="I236" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
@@ -7555,6 +8266,9 @@
       <c r="H237" s="0">
         <v>0.045599378645420074</v>
       </c>
+      <c r="I237" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
@@ -7581,6 +8295,9 @@
       <c r="H238" s="0">
         <v>0.26312282681465149</v>
       </c>
+      <c r="I238" s="0">
+        <v>32150</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
@@ -7607,6 +8324,9 @@
       <c r="H239" s="0">
         <v>0.43722549080848694</v>
       </c>
+      <c r="I239" s="0">
+        <v>33435</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
@@ -7633,6 +8353,9 @@
       <c r="H240" s="0">
         <v>0.22457468509674072</v>
       </c>
+      <c r="I240" s="0">
+        <v>37832</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
@@ -7659,6 +8382,9 @@
       <c r="H241" s="0">
         <v>0.075076982378959656</v>
       </c>
+      <c r="I241" s="0">
+        <v>44780</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
@@ -7685,6 +8411,9 @@
       <c r="H242" s="0">
         <v>0.25564563274383545</v>
       </c>
+      <c r="I242" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
@@ -7711,6 +8440,9 @@
       <c r="H243" s="0">
         <v>0.46108943223953247</v>
       </c>
+      <c r="I243" s="0">
+        <v>67988</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
@@ -7737,6 +8469,9 @@
       <c r="H244" s="0">
         <v>0.22272257506847382</v>
       </c>
+      <c r="I244" s="0">
+        <v>71388</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
@@ -7763,6 +8498,9 @@
       <c r="H245" s="0">
         <v>0.060542378574609756</v>
       </c>
+      <c r="I245" s="0">
+        <v>74820</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
@@ -7789,6 +8527,9 @@
       <c r="H246" s="0">
         <v>0.2430586963891983</v>
       </c>
+      <c r="I246" s="0">
+        <v>38000</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
@@ -7815,6 +8556,9 @@
       <c r="H247" s="0">
         <v>0.52035653591156006</v>
       </c>
+      <c r="I247" s="0">
+        <v>38000</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
@@ -7841,6 +8585,9 @@
       <c r="H248" s="0">
         <v>0.19551742076873779</v>
       </c>
+      <c r="I248" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
@@ -7867,6 +8614,9 @@
       <c r="H249" s="0">
         <v>0.041067317128181458</v>
       </c>
+      <c r="I249" s="0">
+        <v>41000</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
@@ -7893,6 +8643,9 @@
       <c r="H250" s="0">
         <v>0.30431702733039856</v>
       </c>
+      <c r="I250" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
@@ -7919,6 +8672,9 @@
       <c r="H251" s="0">
         <v>0.4056800901889801</v>
       </c>
+      <c r="I251" s="0">
+        <v>36261</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
@@ -7945,6 +8701,9 @@
       <c r="H252" s="0">
         <v>0.24183470010757446</v>
       </c>
+      <c r="I252" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
@@ -7971,6 +8730,9 @@
       <c r="H253" s="0">
         <v>0.04816819354891777</v>
       </c>
+      <c r="I253" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
@@ -7997,6 +8759,9 @@
       <c r="H254" s="0">
         <v>0.36338093876838684</v>
       </c>
+      <c r="I254" s="0">
+        <v>47776</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
@@ -8023,6 +8788,9 @@
       <c r="H255" s="0">
         <v>0.37789744138717651</v>
       </c>
+      <c r="I255" s="0">
+        <v>35354</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
@@ -8049,6 +8817,9 @@
       <c r="H256" s="0">
         <v>0.25614610314369202</v>
       </c>
+      <c r="I256" s="0">
+        <v>34561</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
@@ -8075,6 +8846,9 @@
       <c r="H257" s="0">
         <v>0.002575509250164032</v>
       </c>
+      <c r="I257" s="0">
+        <v>90651</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
@@ -8101,6 +8875,9 @@
       <c r="H258" s="0">
         <v>0.23853667080402374</v>
       </c>
+      <c r="I258" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
@@ -8127,6 +8904,9 @@
       <c r="H259" s="0">
         <v>0.52976995706558228</v>
       </c>
+      <c r="I259" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
@@ -8153,6 +8933,9 @@
       <c r="H260" s="0">
         <v>0.20062705874443054</v>
       </c>
+      <c r="I260" s="0">
+        <v>52426</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
@@ -8179,6 +8962,9 @@
       <c r="H261" s="0">
         <v>0.031066292896866798</v>
       </c>
+      <c r="I261" s="0">
+        <v>55000</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
@@ -8205,6 +8991,9 @@
       <c r="H262" s="0">
         <v>0.28259101510047913</v>
       </c>
+      <c r="I262" s="0">
+        <v>34589</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
@@ -8231,6 +9020,9 @@
       <c r="H263" s="0">
         <v>0.45551323890686035</v>
       </c>
+      <c r="I263" s="0">
+        <v>35127</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
@@ -8257,6 +9049,9 @@
       <c r="H264" s="0">
         <v>0.2224741131067276</v>
       </c>
+      <c r="I264" s="0">
+        <v>36751</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
@@ -8283,6 +9078,9 @@
       <c r="H265" s="0">
         <v>0.039421625435352325</v>
       </c>
+      <c r="I265" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
@@ -8309,6 +9107,9 @@
       <c r="H266" s="0">
         <v>0.32821792364120483</v>
       </c>
+      <c r="I266" s="0">
+        <v>52965</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
@@ -8335,6 +9136,9 @@
       <c r="H267" s="0">
         <v>0.34932824969291687</v>
       </c>
+      <c r="I267" s="0">
+        <v>58923</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
@@ -8361,6 +9165,9 @@
       <c r="H268" s="0">
         <v>0.23863641917705536</v>
       </c>
+      <c r="I268" s="0">
+        <v>79320</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
@@ -8387,6 +9194,9 @@
       <c r="H269" s="0">
         <v>0.083817392587661743</v>
       </c>
+      <c r="I269" s="0">
+        <v>100539</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
@@ -8413,6 +9223,9 @@
       <c r="H270" s="0">
         <v>0.25684612989425659</v>
       </c>
+      <c r="I270" s="0">
+        <v>91878</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
@@ -8439,6 +9252,9 @@
       <c r="H271" s="0">
         <v>0.4990273118019104</v>
       </c>
+      <c r="I271" s="0">
+        <v>108091</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
@@ -8465,6 +9281,9 @@
       <c r="H272" s="0">
         <v>0.20351360738277435</v>
       </c>
+      <c r="I272" s="0">
+        <v>130000</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
@@ -8491,6 +9310,9 @@
       <c r="H273" s="0">
         <v>0.040612936019897461</v>
       </c>
+      <c r="I273" s="0">
+        <v>151328</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
@@ -8517,6 +9339,9 @@
       <c r="H274" s="0">
         <v>0.29742887616157532</v>
       </c>
+      <c r="I274" s="0">
+        <v>36261</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
@@ -8543,6 +9368,9 @@
       <c r="H275" s="0">
         <v>0.45702114701271057</v>
       </c>
+      <c r="I275" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
@@ -8569,6 +9397,9 @@
       <c r="H276" s="0">
         <v>0.22896698117256165</v>
       </c>
+      <c r="I276" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
@@ -8595,6 +9426,9 @@
       <c r="H277" s="0">
         <v>0.016582991927862167</v>
       </c>
+      <c r="I277" s="0">
+        <v>53777</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
@@ -8621,6 +9455,9 @@
       <c r="H278" s="0">
         <v>0.34272748231887817</v>
       </c>
+      <c r="I278" s="0">
+        <v>41075</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
@@ -8647,6 +9484,9 @@
       <c r="H279" s="0">
         <v>0.38223853707313538</v>
       </c>
+      <c r="I279" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
@@ -8673,6 +9513,9 @@
       <c r="H280" s="0">
         <v>0.22365307807922363</v>
       </c>
+      <c r="I280" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
@@ -8699,6 +9542,9 @@
       <c r="H281" s="0">
         <v>0.051380887627601624</v>
       </c>
+      <c r="I281" s="0">
+        <v>75664</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
@@ -8725,6 +9571,9 @@
       <c r="H282" s="0">
         <v>0.27817812561988831</v>
       </c>
+      <c r="I282" s="0">
+        <v>37410</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
@@ -8751,6 +9600,9 @@
       <c r="H283" s="0">
         <v>0.4962727427482605</v>
       </c>
+      <c r="I283" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
@@ -8777,6 +9629,9 @@
       <c r="H284" s="0">
         <v>0.19756981730461121</v>
       </c>
+      <c r="I284" s="0">
+        <v>44000</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
@@ -8803,6 +9658,9 @@
       <c r="H285" s="0">
         <v>0.027979325503110886</v>
       </c>
+      <c r="I285" s="0">
+        <v>38913</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
@@ -8829,6 +9687,9 @@
       <c r="H286" s="0">
         <v>0.35942485928535461</v>
       </c>
+      <c r="I286" s="0">
+        <v>51670</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
@@ -8855,6 +9716,9 @@
       <c r="H287" s="0">
         <v>0.34658485651016235</v>
       </c>
+      <c r="I287" s="0">
+        <v>58453</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
@@ -8881,6 +9745,9 @@
       <c r="H288" s="0">
         <v>0.23867952823638916</v>
       </c>
+      <c r="I288" s="0">
+        <v>54023</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
@@ -8907,6 +9774,9 @@
       <c r="H289" s="0">
         <v>0.055310744792222977</v>
       </c>
+      <c r="I289" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
@@ -8933,6 +9803,9 @@
       <c r="H290" s="0">
         <v>0.37643331289291382</v>
       </c>
+      <c r="I290" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
@@ -8959,6 +9832,9 @@
       <c r="H291" s="0">
         <v>0.36119493842124939</v>
       </c>
+      <c r="I291" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
@@ -8985,6 +9861,9 @@
       <c r="H292" s="0">
         <v>0.23898611962795258</v>
       </c>
+      <c r="I292" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
@@ -9011,6 +9890,9 @@
       <c r="H293" s="0">
         <v>0.023385636508464813</v>
       </c>
+      <c r="I293" s="0">
+        <v>70000</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
@@ -9037,6 +9919,9 @@
       <c r="H294" s="0">
         <v>0.36142963171005249</v>
       </c>
+      <c r="I294" s="0">
+        <v>24784</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
@@ -9063,6 +9948,9 @@
       <c r="H295" s="0">
         <v>0.38112083077430725</v>
       </c>
+      <c r="I295" s="0">
+        <v>27557</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
@@ -9089,6 +9977,9 @@
       <c r="H296" s="0">
         <v>0.2066880464553833</v>
       </c>
+      <c r="I296" s="0">
+        <v>31346</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
@@ -9115,6 +10006,9 @@
       <c r="H297" s="0">
         <v>0.05076150968670845</v>
       </c>
+      <c r="I297" s="0">
+        <v>28329</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
@@ -9141,6 +10035,9 @@
       <c r="H298" s="0">
         <v>0.29074567556381226</v>
       </c>
+      <c r="I298" s="0">
+        <v>37832</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
@@ -9167,6 +10064,9 @@
       <c r="H299" s="0">
         <v>0.47407659888267517</v>
       </c>
+      <c r="I299" s="0">
+        <v>39748</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
@@ -9193,6 +10093,9 @@
       <c r="H300" s="0">
         <v>0.19427827000617981</v>
       </c>
+      <c r="I300" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
@@ -9219,6 +10122,9 @@
       <c r="H301" s="0">
         <v>0.040899462997913361</v>
       </c>
+      <c r="I301" s="0">
+        <v>49900</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
@@ -9245,6 +10151,9 @@
       <c r="H302" s="0">
         <v>0.38526266813278198</v>
       </c>
+      <c r="I302" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
@@ -9271,6 +10180,9 @@
       <c r="H303" s="0">
         <v>0.36274215579032898</v>
       </c>
+      <c r="I303" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
@@ -9297,6 +10209,9 @@
       <c r="H304" s="0">
         <v>0.21055756509304047</v>
       </c>
+      <c r="I304" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
@@ -9323,6 +10238,9 @@
       <c r="H305" s="0">
         <v>0.041437599807977676</v>
       </c>
+      <c r="I305" s="0">
+        <v>59707</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
@@ -9349,6 +10267,9 @@
       <c r="H306" s="0">
         <v>0.32038047909736633</v>
       </c>
+      <c r="I306" s="0">
+        <v>34481</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
@@ -9375,6 +10296,9 @@
       <c r="H307" s="0">
         <v>0.43432000279426575</v>
       </c>
+      <c r="I307" s="0">
+        <v>36000</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
@@ -9401,6 +10325,9 @@
       <c r="H308" s="0">
         <v>0.1979970782995224</v>
       </c>
+      <c r="I308" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
@@ -9427,6 +10354,9 @@
       <c r="H309" s="0">
         <v>0.047302421182394028</v>
       </c>
+      <c r="I309" s="0">
+        <v>42156</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
@@ -9453,6 +10383,9 @@
       <c r="H310" s="0">
         <v>0.29797518253326416</v>
       </c>
+      <c r="I310" s="0">
+        <v>38579</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
@@ -9479,6 +10412,9 @@
       <c r="H311" s="0">
         <v>0.50340175628662109</v>
       </c>
+      <c r="I311" s="0">
+        <v>40099</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
@@ -9505,6 +10441,9 @@
       <c r="H312" s="0">
         <v>0.17073863744735718</v>
       </c>
+      <c r="I312" s="0">
+        <v>44424</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
@@ -9531,6 +10470,9 @@
       <c r="H313" s="0">
         <v>0.027884401381015778</v>
       </c>
+      <c r="I313" s="0">
+        <v>45398</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
@@ -9557,6 +10499,9 @@
       <c r="H314" s="0">
         <v>0.32200884819030762</v>
       </c>
+      <c r="I314" s="0">
+        <v>33508</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
@@ -9583,6 +10528,9 @@
       <c r="H315" s="0">
         <v>0.41843152046203613</v>
       </c>
+      <c r="I315" s="0">
+        <v>38913</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
@@ -9609,6 +10557,9 @@
       <c r="H316" s="0">
         <v>0.18724994361400604</v>
       </c>
+      <c r="I316" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
@@ -9635,6 +10586,9 @@
       <c r="H317" s="0">
         <v>0.072309665381908417</v>
       </c>
+      <c r="I317" s="0">
+        <v>57790</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
@@ -9661,6 +10615,9 @@
       <c r="H318" s="0">
         <v>0.40338316559791565</v>
       </c>
+      <c r="I318" s="0">
+        <v>25261</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
@@ -9687,6 +10644,9 @@
       <c r="H319" s="0">
         <v>0.35026818513870239</v>
       </c>
+      <c r="I319" s="0">
+        <v>25252</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
@@ -9713,6 +10673,9 @@
       <c r="H320" s="0">
         <v>0.21547241508960724</v>
       </c>
+      <c r="I320" s="0">
+        <v>30200</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
@@ -9739,6 +10702,9 @@
       <c r="H321" s="0">
         <v>0.030876241624355316</v>
       </c>
+      <c r="I321" s="0">
+        <v>23381</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
@@ -9765,6 +10731,9 @@
       <c r="H322" s="0">
         <v>0.28258311748504639</v>
       </c>
+      <c r="I322" s="0">
+        <v>36000</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
@@ -9791,6 +10760,9 @@
       <c r="H323" s="0">
         <v>0.52762842178344727</v>
       </c>
+      <c r="I323" s="0">
+        <v>36261</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
@@ -9817,6 +10789,9 @@
       <c r="H324" s="0">
         <v>0.15951506793498993</v>
       </c>
+      <c r="I324" s="0">
+        <v>39000</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
@@ -9843,6 +10818,9 @@
       <c r="H325" s="0">
         <v>0.030273374170064926</v>
       </c>
+      <c r="I325" s="0">
+        <v>39000</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
@@ -9869,6 +10847,9 @@
       <c r="H326" s="0">
         <v>0.43866094946861267</v>
       </c>
+      <c r="I326" s="0">
+        <v>28000</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
@@ -9895,6 +10876,9 @@
       <c r="H327" s="0">
         <v>0.3252703845500946</v>
       </c>
+      <c r="I327" s="0">
+        <v>27376</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
@@ -9921,6 +10905,9 @@
       <c r="H328" s="0">
         <v>0.20519277453422546</v>
       </c>
+      <c r="I328" s="0">
+        <v>24316</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
@@ -9947,6 +10934,9 @@
       <c r="H329" s="0">
         <v>0.03087591752409935</v>
       </c>
+      <c r="I329" s="0">
+        <v>29226</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
@@ -9973,6 +10963,9 @@
       <c r="H330" s="0">
         <v>0.32653921842575073</v>
       </c>
+      <c r="I330" s="0">
+        <v>38345</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
@@ -9999,6 +10992,9 @@
       <c r="H331" s="0">
         <v>0.48082166910171509</v>
       </c>
+      <c r="I331" s="0">
+        <v>40762</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
@@ -10025,6 +11021,9 @@
       <c r="H332" s="0">
         <v>0.16712126135826111</v>
       </c>
+      <c r="I332" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
@@ -10051,6 +11050,9 @@
       <c r="H333" s="0">
         <v>0.025517832487821579</v>
       </c>
+      <c r="I333" s="0">
+        <v>60056</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
@@ -10077,6 +11079,9 @@
       <c r="H334" s="0">
         <v>0.41178593039512634</v>
       </c>
+      <c r="I334" s="0">
+        <v>17419</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
@@ -10103,6 +11108,9 @@
       <c r="H335" s="0">
         <v>0.3593190610408783</v>
       </c>
+      <c r="I335" s="0">
+        <v>21043</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
@@ -10129,6 +11137,9 @@
       <c r="H336" s="0">
         <v>0.18429255485534668</v>
       </c>
+      <c r="I336" s="0">
+        <v>23381</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
@@ -10155,6 +11166,9 @@
       <c r="H337" s="0">
         <v>0.044602483510971069</v>
       </c>
+      <c r="I337" s="0">
+        <v>24929</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
@@ -10181,6 +11195,9 @@
       <c r="H338" s="0">
         <v>0.37305355072021484</v>
       </c>
+      <c r="I338" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
@@ -10207,6 +11224,9 @@
       <c r="H339" s="0">
         <v>0.40405550599098206</v>
       </c>
+      <c r="I339" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
@@ -10233,6 +11253,9 @@
       <c r="H340" s="0">
         <v>0.18253791332244873</v>
       </c>
+      <c r="I340" s="0">
+        <v>50803</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
@@ -10259,6 +11282,9 @@
       <c r="H341" s="0">
         <v>0.040353037416934967</v>
       </c>
+      <c r="I341" s="0">
+        <v>54946</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
@@ -10285,6 +11311,9 @@
       <c r="H342" s="0">
         <v>0.33730655908584595</v>
       </c>
+      <c r="I342" s="0">
+        <v>31346</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
@@ -10311,6 +11340,9 @@
       <c r="H343" s="0">
         <v>0.45038071274757385</v>
       </c>
+      <c r="I343" s="0">
+        <v>31400</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
@@ -10337,6 +11369,9 @@
       <c r="H344" s="0">
         <v>0.18125517666339874</v>
       </c>
+      <c r="I344" s="0">
+        <v>33088</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
@@ -10363,6 +11398,9 @@
       <c r="H345" s="0">
         <v>0.03105757012963295</v>
       </c>
+      <c r="I345" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
@@ -10389,6 +11427,9 @@
       <c r="H346" s="0">
         <v>0.36261585354804993</v>
       </c>
+      <c r="I346" s="0">
+        <v>32149</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
@@ -10415,6 +11456,9 @@
       <c r="H347" s="0">
         <v>0.43016576766967773</v>
       </c>
+      <c r="I347" s="0">
+        <v>32150</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
@@ -10441,6 +11485,9 @@
       <c r="H348" s="0">
         <v>0.18515859544277191</v>
       </c>
+      <c r="I348" s="0">
+        <v>33724</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
@@ -10467,6 +11514,9 @@
       <c r="H349" s="0">
         <v>0.022059783339500427</v>
       </c>
+      <c r="I349" s="0">
+        <v>37410</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
@@ -10493,6 +11543,9 @@
       <c r="H350" s="0">
         <v>0.35461428761482239</v>
       </c>
+      <c r="I350" s="0">
+        <v>43632</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
@@ -10519,6 +11572,9 @@
       <c r="H351" s="0">
         <v>0.37329891324043274</v>
       </c>
+      <c r="I351" s="0">
+        <v>51670</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
@@ -10545,6 +11601,9 @@
       <c r="H352" s="0">
         <v>0.17752592265605927</v>
       </c>
+      <c r="I352" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
@@ -10571,6 +11630,9 @@
       <c r="H353" s="0">
         <v>0.094560891389846802</v>
       </c>
+      <c r="I353" s="0">
+        <v>90797</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
@@ -10597,6 +11659,9 @@
       <c r="H354" s="0">
         <v>0.57036113739013672</v>
       </c>
+      <c r="I354" s="0">
+        <v>35127</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
@@ -10623,6 +11688,9 @@
       <c r="H355" s="0">
         <v>0.20519207417964935</v>
       </c>
+      <c r="I355" s="0">
+        <v>47560</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
@@ -10649,6 +11717,9 @@
       <c r="H356" s="0">
         <v>0.1816265881061554</v>
       </c>
+      <c r="I356" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
@@ -10675,6 +11746,9 @@
       <c r="H357" s="0">
         <v>0.042820192873477936</v>
       </c>
+      <c r="I357" s="0">
+        <v>77054</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
@@ -10701,6 +11775,9 @@
       <c r="H358" s="0">
         <v>0.33456245064735413</v>
       </c>
+      <c r="I358" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
@@ -10727,6 +11804,9 @@
       <c r="H359" s="0">
         <v>0.45755904912948608</v>
       </c>
+      <c r="I359" s="0">
+        <v>67745</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
@@ -10753,6 +11833,9 @@
       <c r="H360" s="0">
         <v>0.15545251965522766</v>
       </c>
+      <c r="I360" s="0">
+        <v>70144</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
@@ -10779,6 +11862,9 @@
       <c r="H361" s="0">
         <v>0.052425980567932129</v>
       </c>
+      <c r="I361" s="0">
+        <v>79320</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
@@ -10805,6 +11891,9 @@
       <c r="H362" s="0">
         <v>0.51995998620986938</v>
       </c>
+      <c r="I362" s="0">
+        <v>43059</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
@@ -10831,6 +11920,9 @@
       <c r="H363" s="0">
         <v>0.28489586710929871</v>
       </c>
+      <c r="I363" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
@@ -10857,6 +11949,9 @@
       <c r="H364" s="0">
         <v>0.17432026565074921</v>
       </c>
+      <c r="I364" s="0">
+        <v>55000</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
@@ -10883,6 +11978,9 @@
       <c r="H365" s="0">
         <v>0.020823860540986061</v>
       </c>
+      <c r="I365" s="0">
+        <v>68893</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
@@ -10909,6 +12007,9 @@
       <c r="H366" s="0">
         <v>0.32138249278068542</v>
       </c>
+      <c r="I366" s="0">
+        <v>51884</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
@@ -10935,6 +12036,9 @@
       <c r="H367" s="0">
         <v>0.49265754222869873</v>
       </c>
+      <c r="I367" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
@@ -10961,6 +12065,9 @@
       <c r="H368" s="0">
         <v>0.16049182415008545</v>
       </c>
+      <c r="I368" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
@@ -10987,6 +12094,9 @@
       <c r="H369" s="0">
         <v>0.025468144565820694</v>
       </c>
+      <c r="I369" s="0">
+        <v>63152</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
@@ -11013,6 +12123,9 @@
       <c r="H370" s="0">
         <v>0.37604802846908569</v>
       </c>
+      <c r="I370" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
@@ -11039,6 +12152,9 @@
       <c r="H371" s="0">
         <v>0.38448181748390198</v>
       </c>
+      <c r="I371" s="0">
+        <v>35670</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
@@ -11065,6 +12181,9 @@
       <c r="H372" s="0">
         <v>0.16813017427921295</v>
       </c>
+      <c r="I372" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
@@ -11091,6 +12210,9 @@
       <c r="H373" s="0">
         <v>0.071339979767799377</v>
       </c>
+      <c r="I373" s="0">
+        <v>90000</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
@@ -11117,6 +12239,9 @@
       <c r="H374" s="0">
         <v>0.35710152983665466</v>
       </c>
+      <c r="I374" s="0">
+        <v>30000</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
@@ -11143,6 +12268,9 @@
       <c r="H375" s="0">
         <v>0.45749077200889587</v>
       </c>
+      <c r="I375" s="0">
+        <v>31728</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
@@ -11169,6 +12297,9 @@
       <c r="H376" s="0">
         <v>0.15715391933917999</v>
       </c>
+      <c r="I376" s="0">
+        <v>33994</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
@@ -11195,6 +12326,9 @@
       <c r="H377" s="0">
         <v>0.028253763914108276</v>
       </c>
+      <c r="I377" s="0">
+        <v>33600</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
@@ -11221,6 +12355,9 @@
       <c r="H378" s="0">
         <v>0.38113075494766235</v>
       </c>
+      <c r="I378" s="0">
+        <v>40917</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
@@ -11247,6 +12384,9 @@
       <c r="H379" s="0">
         <v>0.43403938412666321</v>
       </c>
+      <c r="I379" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
@@ -11273,6 +12413,9 @@
       <c r="H380" s="0">
         <v>0.15827542543411255</v>
       </c>
+      <c r="I380" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
@@ -11299,6 +12442,9 @@
       <c r="H381" s="0">
         <v>0.026554431766271591</v>
       </c>
+      <c r="I381" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
@@ -11325,6 +12471,9 @@
       <c r="H382" s="0">
         <v>0.42509528994560242</v>
       </c>
+      <c r="I382" s="0">
+        <v>29854</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
@@ -11351,6 +12500,9 @@
       <c r="H383" s="0">
         <v>0.39044269919395447</v>
       </c>
+      <c r="I383" s="0">
+        <v>34000</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
@@ -11377,6 +12529,9 @@
       <c r="H384" s="0">
         <v>0.14863675832748413</v>
       </c>
+      <c r="I384" s="0">
+        <v>33000</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
@@ -11403,6 +12558,9 @@
       <c r="H385" s="0">
         <v>0.035825271159410477</v>
       </c>
+      <c r="I385" s="0">
+        <v>32495</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
@@ -11429,6 +12587,9 @@
       <c r="H386" s="0">
         <v>0.41039571166038513</v>
       </c>
+      <c r="I386" s="0">
+        <v>22964</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
@@ -11455,6 +12616,9 @@
       <c r="H387" s="0">
         <v>0.3951953649520874</v>
       </c>
+      <c r="I387" s="0">
+        <v>25018</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
@@ -11481,6 +12645,9 @@
       <c r="H388" s="0">
         <v>0.16186849772930145</v>
       </c>
+      <c r="I388" s="0">
+        <v>29811</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
@@ -11507,6 +12674,9 @@
       <c r="H389" s="0">
         <v>0.03254043310880661</v>
       </c>
+      <c r="I389" s="0">
+        <v>29462</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
@@ -11533,6 +12703,9 @@
       <c r="H390" s="0">
         <v>0.32056537270545959</v>
       </c>
+      <c r="I390" s="0">
+        <v>35000</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
@@ -11559,6 +12732,9 @@
       <c r="H391" s="0">
         <v>0.50312906503677368</v>
       </c>
+      <c r="I391" s="0">
+        <v>33300</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
@@ -11585,6 +12761,9 @@
       <c r="H392" s="0">
         <v>0.14113077521324158</v>
       </c>
+      <c r="I392" s="0">
+        <v>33724</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
@@ -11611,6 +12790,9 @@
       <c r="H393" s="0">
         <v>0.035174794495105743</v>
       </c>
+      <c r="I393" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
@@ -11637,6 +12819,9 @@
       <c r="H394" s="0">
         <v>0.58110219240188599</v>
       </c>
+      <c r="I394" s="0">
+        <v>35921</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
@@ -11663,6 +12848,9 @@
       <c r="H395" s="0">
         <v>0.22529715299606323</v>
       </c>
+      <c r="I395" s="0">
+        <v>41795</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
@@ -11689,6 +12877,9 @@
       <c r="H396" s="0">
         <v>0.14323447644710541</v>
       </c>
+      <c r="I396" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
@@ -11715,6 +12906,9 @@
       <c r="H397" s="0">
         <v>0.050366189330816269</v>
       </c>
+      <c r="I397" s="0">
+        <v>68975</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
@@ -11741,6 +12935,9 @@
       <c r="H398" s="0">
         <v>0.59308022260665894</v>
       </c>
+      <c r="I398" s="0">
+        <v>33669</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
@@ -11767,6 +12964,9 @@
       <c r="H399" s="0">
         <v>0.22787120938301086</v>
       </c>
+      <c r="I399" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
@@ -11793,6 +12993,9 @@
       <c r="H400" s="0">
         <v>0.16741950809955597</v>
       </c>
+      <c r="I400" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
@@ -11819,6 +13022,9 @@
       <c r="H401" s="0">
         <v>0.011629024520516396</v>
       </c>
+      <c r="I401" s="0">
+        <v>24929</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
@@ -11845,6 +13051,9 @@
       <c r="H402" s="0">
         <v>0.42178460955619812</v>
       </c>
+      <c r="I402" s="0">
+        <v>63129</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
@@ -11871,6 +13080,9 @@
       <c r="H403" s="0">
         <v>0.35631650686264038</v>
       </c>
+      <c r="I403" s="0">
+        <v>72421</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
@@ -11897,6 +13109,9 @@
       <c r="H404" s="0">
         <v>0.16260801255702972</v>
       </c>
+      <c r="I404" s="0">
+        <v>94039</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
@@ -11923,6 +13138,9 @@
       <c r="H405" s="0">
         <v>0.059290867298841476</v>
       </c>
+      <c r="I405" s="0">
+        <v>111377</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
@@ -11949,6 +13167,9 @@
       <c r="H406" s="0">
         <v>0.35125759243965149</v>
       </c>
+      <c r="I406" s="0">
+        <v>29226</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
@@ -11975,6 +13196,9 @@
       <c r="H407" s="0">
         <v>0.50286209583282471</v>
       </c>
+      <c r="I407" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
@@ -12001,6 +13225,9 @@
       <c r="H408" s="0">
         <v>0.12627926468849182</v>
       </c>
+      <c r="I408" s="0">
+        <v>42155.5</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
@@ -12027,6 +13254,9 @@
       <c r="H409" s="0">
         <v>0.019601041451096535</v>
       </c>
+      <c r="I409" s="0">
+        <v>61612</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
@@ -12053,6 +13283,9 @@
       <c r="H410" s="0">
         <v>0.61481648683547974</v>
       </c>
+      <c r="I410" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
@@ -12079,6 +13312,9 @@
       <c r="H411" s="0">
         <v>0.23332589864730835</v>
       </c>
+      <c r="I411" s="0">
+        <v>49000</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
@@ -12105,6 +13341,9 @@
       <c r="H412" s="0">
         <v>0.11995797604322433</v>
       </c>
+      <c r="I412" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
@@ -12131,6 +13370,9 @@
       <c r="H413" s="0">
         <v>0.031899653375148773</v>
       </c>
+      <c r="I413" s="0">
+        <v>71189</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
@@ -12157,6 +13399,9 @@
       <c r="H414" s="0">
         <v>0.44381389021873474</v>
       </c>
+      <c r="I414" s="0">
+        <v>35000</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
@@ -12183,6 +13428,9 @@
       <c r="H415" s="0">
         <v>0.38172334432601929</v>
       </c>
+      <c r="I415" s="0">
+        <v>35000</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
@@ -12209,6 +13457,9 @@
       <c r="H416" s="0">
         <v>0.15192990005016327</v>
       </c>
+      <c r="I416" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
@@ -12235,6 +13486,9 @@
       <c r="H417" s="0">
         <v>0.022532859817147255</v>
       </c>
+      <c r="I417" s="0">
+        <v>38527</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
@@ -12261,6 +13515,9 @@
       <c r="H418" s="0">
         <v>0.44358211755752563</v>
       </c>
+      <c r="I418" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
@@ -12287,6 +13544,9 @@
       <c r="H419" s="0">
         <v>0.37098369002342224</v>
       </c>
+      <c r="I419" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
@@ -12313,6 +13573,9 @@
       <c r="H420" s="0">
         <v>0.14723725616931915</v>
       </c>
+      <c r="I420" s="0">
+        <v>56207</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
@@ -12339,6 +13602,9 @@
       <c r="H421" s="0">
         <v>0.03819693997502327</v>
       </c>
+      <c r="I421" s="0">
+        <v>67988</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
@@ -12365,6 +13631,9 @@
       <c r="H422" s="0">
         <v>0.42989051342010498</v>
       </c>
+      <c r="I422" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
@@ -12391,6 +13660,9 @@
       <c r="H423" s="0">
         <v>0.39811700582504272</v>
       </c>
+      <c r="I423" s="0">
+        <v>42484</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
@@ -12417,6 +13689,9 @@
       <c r="H424" s="0">
         <v>0.14284065365791321</v>
       </c>
+      <c r="I424" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
@@ -12443,6 +13718,9 @@
       <c r="H425" s="0">
         <v>0.029151827096939087</v>
       </c>
+      <c r="I425" s="0">
+        <v>40917</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
@@ -12469,6 +13747,9 @@
       <c r="H426" s="0">
         <v>0.46281531453132629</v>
       </c>
+      <c r="I426" s="0">
+        <v>32851</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
@@ -12495,6 +13776,9 @@
       <c r="H427" s="0">
         <v>0.3925422728061676</v>
       </c>
+      <c r="I427" s="0">
+        <v>40858</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
@@ -12521,6 +13805,9 @@
       <c r="H428" s="0">
         <v>0.12353698164224625</v>
       </c>
+      <c r="I428" s="0">
+        <v>43288</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
@@ -12547,6 +13834,9 @@
       <c r="H429" s="0">
         <v>0.021105427294969559</v>
       </c>
+      <c r="I429" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
@@ -12573,6 +13863,9 @@
       <c r="H430" s="0">
         <v>0.43839386105537415</v>
       </c>
+      <c r="I430" s="0">
+        <v>49722</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
@@ -12599,6 +13892,9 @@
       <c r="H431" s="0">
         <v>0.39522069692611694</v>
       </c>
+      <c r="I431" s="0">
+        <v>54595</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
@@ -12625,6 +13921,9 @@
       <c r="H432" s="0">
         <v>0.13837003707885742</v>
       </c>
+      <c r="I432" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
@@ -12651,6 +13950,9 @@
       <c r="H433" s="0">
         <v>0.028015386313199997</v>
       </c>
+      <c r="I433" s="0">
+        <v>67988</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
@@ -12677,6 +13979,9 @@
       <c r="H434" s="0">
         <v>0.43117257952690125</v>
       </c>
+      <c r="I434" s="0">
+        <v>32734</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
@@ -12703,6 +14008,9 @@
       <c r="H435" s="0">
         <v>0.40195277333259583</v>
       </c>
+      <c r="I435" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
@@ -12729,6 +14037,9 @@
       <c r="H436" s="0">
         <v>0.13906542956829071</v>
       </c>
+      <c r="I436" s="0">
+        <v>42700</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
@@ -12755,6 +14066,9 @@
       <c r="H437" s="0">
         <v>0.027809210121631622</v>
       </c>
+      <c r="I437" s="0">
+        <v>58453</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
@@ -12781,6 +14095,9 @@
       <c r="H438" s="0">
         <v>0.40176889300346375</v>
       </c>
+      <c r="I438" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
@@ -12807,6 +14124,9 @@
       <c r="H439" s="0">
         <v>0.4394824206829071</v>
       </c>
+      <c r="I439" s="0">
+        <v>58923</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
@@ -12833,6 +14153,9 @@
       <c r="H440" s="0">
         <v>0.13663755357265472</v>
       </c>
+      <c r="I440" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
@@ -12859,6 +14182,9 @@
       <c r="H441" s="0">
         <v>0.02211114764213562</v>
       </c>
+      <c r="I441" s="0">
+        <v>64298</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
@@ -12885,6 +14211,9 @@
       <c r="H442" s="0">
         <v>0.47893023490905762</v>
       </c>
+      <c r="I442" s="0">
+        <v>56207</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
@@ -12911,6 +14240,9 @@
       <c r="H443" s="0">
         <v>0.34526017308235168</v>
       </c>
+      <c r="I443" s="0">
+        <v>64000</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
@@ -12937,6 +14269,9 @@
       <c r="H444" s="0">
         <v>0.13916748762130737</v>
       </c>
+      <c r="I444" s="0">
+        <v>77158</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
@@ -12963,6 +14298,9 @@
       <c r="H445" s="0">
         <v>0.036642100661993027</v>
       </c>
+      <c r="I445" s="0">
+        <v>93525</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
@@ -12989,6 +14327,9 @@
       <c r="H446" s="0">
         <v>0.445585697889328</v>
       </c>
+      <c r="I446" s="0">
+        <v>32734</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
@@ -13015,6 +14356,9 @@
       <c r="H447" s="0">
         <v>0.3941933810710907</v>
       </c>
+      <c r="I447" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
@@ -13041,6 +14385,9 @@
       <c r="H448" s="0">
         <v>0.13234254717826843</v>
       </c>
+      <c r="I448" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
@@ -13067,6 +14414,9 @@
       <c r="H449" s="0">
         <v>0.027878377586603165</v>
       </c>
+      <c r="I449" s="0">
+        <v>36261</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
@@ -13093,6 +14443,9 @@
       <c r="H450" s="0">
         <v>0.4074733555316925</v>
       </c>
+      <c r="I450" s="0">
+        <v>33318</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
@@ -13119,6 +14472,9 @@
       <c r="H451" s="0">
         <v>0.42462262511253357</v>
       </c>
+      <c r="I451" s="0">
+        <v>35000</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
@@ -13145,6 +14501,9 @@
       <c r="H452" s="0">
         <v>0.13442730903625488</v>
       </c>
+      <c r="I452" s="0">
+        <v>37394</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
@@ -13171,6 +14530,9 @@
       <c r="H453" s="0">
         <v>0.033476699143648148</v>
       </c>
+      <c r="I453" s="0">
+        <v>44532</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
@@ -13197,6 +14559,9 @@
       <c r="H454" s="0">
         <v>0.40876507759094238</v>
       </c>
+      <c r="I454" s="0">
+        <v>62323</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
@@ -13223,6 +14588,9 @@
       <c r="H455" s="0">
         <v>0.43436089158058167</v>
       </c>
+      <c r="I455" s="0">
+        <v>70144</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
@@ -13249,6 +14617,9 @@
       <c r="H456" s="0">
         <v>0.12382543832063675</v>
       </c>
+      <c r="I456" s="0">
+        <v>82000</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
@@ -13275,6 +14646,9 @@
       <c r="H457" s="0">
         <v>0.033048592507839203</v>
       </c>
+      <c r="I457" s="0">
+        <v>86116</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
@@ -13301,6 +14675,9 @@
       <c r="H458" s="0">
         <v>0.42236769199371338</v>
       </c>
+      <c r="I458" s="0">
+        <v>66000</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
@@ -13327,6 +14704,9 @@
       <c r="H459" s="0">
         <v>0.44193774461746216</v>
       </c>
+      <c r="I459" s="0">
+        <v>91857</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
@@ -13353,6 +14733,9 @@
       <c r="H460" s="0">
         <v>0.12157358229160309</v>
       </c>
+      <c r="I460" s="0">
+        <v>86473</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
@@ -13379,6 +14762,9 @@
       <c r="H461" s="0">
         <v>0.014121009036898613</v>
       </c>
+      <c r="I461" s="0">
+        <v>86473</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
@@ -13405,6 +14791,9 @@
       <c r="H462" s="0">
         <v>0.41767162084579468</v>
       </c>
+      <c r="I462" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
@@ -13431,6 +14820,9 @@
       <c r="H463" s="0">
         <v>0.43460109829902649</v>
       </c>
+      <c r="I463" s="0">
+        <v>57284</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
@@ -13457,6 +14849,9 @@
       <c r="H464" s="0">
         <v>0.12140537798404694</v>
       </c>
+      <c r="I464" s="0">
+        <v>86116</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
@@ -13483,6 +14878,9 @@
       <c r="H465" s="0">
         <v>0.026321891695261002</v>
       </c>
+      <c r="I465" s="0">
+        <v>103768</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
@@ -13509,6 +14907,9 @@
       <c r="H466" s="0">
         <v>0.5549653172492981</v>
       </c>
+      <c r="I466" s="0">
+        <v>33994</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
@@ -13535,6 +14936,9 @@
       <c r="H467" s="0">
         <v>0.30450490117073059</v>
       </c>
+      <c r="I467" s="0">
+        <v>42606</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
@@ -13561,6 +14965,9 @@
       <c r="H468" s="0">
         <v>0.11857203394174576</v>
       </c>
+      <c r="I468" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
@@ -13587,6 +14994,9 @@
       <c r="H469" s="0">
         <v>0.02195778489112854</v>
       </c>
+      <c r="I469" s="0">
+        <v>32675</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
@@ -13613,6 +15023,9 @@
       <c r="H470" s="0">
         <v>0.47689375281333923</v>
       </c>
+      <c r="I470" s="0">
+        <v>28705</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
@@ -13639,6 +15052,9 @@
       <c r="H471" s="0">
         <v>0.37903457880020142</v>
       </c>
+      <c r="I471" s="0">
+        <v>32150</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
@@ -13665,6 +15081,9 @@
       <c r="H472" s="0">
         <v>0.12385518103837967</v>
       </c>
+      <c r="I472" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
@@ -13691,6 +15110,9 @@
       <c r="H473" s="0">
         <v>0.020216487348079681</v>
       </c>
+      <c r="I473" s="0">
+        <v>39748</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
@@ -13717,6 +15139,9 @@
       <c r="H474" s="0">
         <v>0.48262634873390198</v>
       </c>
+      <c r="I474" s="0">
+        <v>36319</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
@@ -13743,6 +15168,9 @@
       <c r="H475" s="0">
         <v>0.36940687894821167</v>
       </c>
+      <c r="I475" s="0">
+        <v>41926</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
@@ -13769,6 +15197,9 @@
       <c r="H476" s="0">
         <v>0.12146253138780594</v>
       </c>
+      <c r="I476" s="0">
+        <v>49101</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
@@ -13795,6 +15226,9 @@
       <c r="H477" s="0">
         <v>0.026504253968596458</v>
       </c>
+      <c r="I477" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
@@ -13821,6 +15255,9 @@
       <c r="H478" s="0">
         <v>0.41519081592559814</v>
       </c>
+      <c r="I478" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
@@ -13847,6 +15284,9 @@
       <c r="H479" s="0">
         <v>0.45372912287712097</v>
       </c>
+      <c r="I479" s="0">
+        <v>53073</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
@@ -13873,6 +15313,9 @@
       <c r="H480" s="0">
         <v>0.11466699838638306</v>
       </c>
+      <c r="I480" s="0">
+        <v>58336</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
@@ -13899,6 +15342,9 @@
       <c r="H481" s="0">
         <v>0.016413070261478424</v>
       </c>
+      <c r="I481" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
@@ -13925,6 +15371,9 @@
       <c r="H482" s="0">
         <v>0.40000000596046448</v>
       </c>
+      <c r="I482" s="0">
+        <v>78187</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
@@ -13951,6 +15400,9 @@
       <c r="H483" s="0">
         <v>0.46468243002891541</v>
       </c>
+      <c r="I483" s="0">
+        <v>86116</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
@@ -13977,6 +15429,9 @@
       <c r="H484" s="0">
         <v>0.12076331675052643</v>
       </c>
+      <c r="I484" s="0">
+        <v>90000</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
@@ -14003,6 +15458,9 @@
       <c r="H485" s="0">
         <v>0.014554258435964584</v>
       </c>
+      <c r="I485" s="0">
+        <v>83000</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
@@ -14029,6 +15487,9 @@
       <c r="H486" s="0">
         <v>0.53704148530960083</v>
       </c>
+      <c r="I486" s="0">
+        <v>38000</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
@@ -14055,6 +15516,9 @@
       <c r="H487" s="0">
         <v>0.31400609016418457</v>
       </c>
+      <c r="I487" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
@@ -14081,6 +15545,9 @@
       <c r="H488" s="0">
         <v>0.1228695809841156</v>
       </c>
+      <c r="I488" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
@@ -14107,6 +15574,9 @@
       <c r="H489" s="0">
         <v>0.026082826778292656</v>
       </c>
+      <c r="I489" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
@@ -14133,6 +15603,9 @@
       <c r="H490" s="0">
         <v>0.37852486968040466</v>
       </c>
+      <c r="I490" s="0">
+        <v>50522</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
@@ -14159,6 +15632,9 @@
       <c r="H491" s="0">
         <v>0.50504159927368164</v>
       </c>
+      <c r="I491" s="0">
+        <v>60791</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
@@ -14185,6 +15661,9 @@
       <c r="H492" s="0">
         <v>0.09536365419626236</v>
       </c>
+      <c r="I492" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
@@ -14211,6 +15690,9 @@
       <c r="H493" s="0">
         <v>0.021069850772619247</v>
       </c>
+      <c r="I493" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
@@ -14237,6 +15719,9 @@
       <c r="H494" s="0">
         <v>0.49579370021820068</v>
       </c>
+      <c r="I494" s="0">
+        <v>31002</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
@@ -14263,6 +15748,9 @@
       <c r="H495" s="0">
         <v>0.35899779200553894</v>
       </c>
+      <c r="I495" s="0">
+        <v>33903</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
@@ -14289,6 +15777,9 @@
       <c r="H496" s="0">
         <v>0.12368934601545334</v>
       </c>
+      <c r="I496" s="0">
+        <v>35670</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
@@ -14315,6 +15806,9 @@
       <c r="H497" s="0">
         <v>0.021519141271710396</v>
       </c>
+      <c r="I497" s="0">
+        <v>41680</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
@@ -14341,6 +15835,9 @@
       <c r="H498" s="0">
         <v>0.61445224285125732</v>
       </c>
+      <c r="I498" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
@@ -14367,6 +15864,9 @@
       <c r="H499" s="0">
         <v>0.24944485723972321</v>
       </c>
+      <c r="I499" s="0">
+        <v>39280</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
@@ -14393,6 +15893,9 @@
       <c r="H500" s="0">
         <v>0.11213915795087814</v>
       </c>
+      <c r="I500" s="0">
+        <v>56207</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
@@ -14419,6 +15922,9 @@
       <c r="H501" s="0">
         <v>0.023963730782270432</v>
       </c>
+      <c r="I501" s="0">
+        <v>28705</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
@@ -14445,6 +15951,9 @@
       <c r="H502" s="0">
         <v>0.47451016306877136</v>
       </c>
+      <c r="I502" s="0">
+        <v>39300</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
@@ -14471,6 +15980,9 @@
       <c r="H503" s="0">
         <v>0.40060871839523315</v>
       </c>
+      <c r="I503" s="0">
+        <v>49722</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
@@ -14497,6 +16009,9 @@
       <c r="H504" s="0">
         <v>0.1035761833190918</v>
       </c>
+      <c r="I504" s="0">
+        <v>51000</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
@@ -14523,6 +16038,9 @@
       <c r="H505" s="0">
         <v>0.02130492590367794</v>
       </c>
+      <c r="I505" s="0">
+        <v>69560</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
@@ -14549,6 +16067,9 @@
       <c r="H506" s="0">
         <v>0.45488065481185913</v>
       </c>
+      <c r="I506" s="0">
+        <v>70000</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
@@ -14575,6 +16096,9 @@
       <c r="H507" s="0">
         <v>0.41036471724510193</v>
       </c>
+      <c r="I507" s="0">
+        <v>73654</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
@@ -14601,6 +16125,9 @@
       <c r="H508" s="0">
         <v>0.11511129140853882</v>
       </c>
+      <c r="I508" s="0">
+        <v>83852</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
@@ -14627,6 +16154,9 @@
       <c r="H509" s="0">
         <v>0.019643336534500122</v>
       </c>
+      <c r="I509" s="0">
+        <v>87679</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
@@ -14653,6 +16183,9 @@
       <c r="H510" s="0">
         <v>0.48379960656166077</v>
       </c>
+      <c r="I510" s="0">
+        <v>46479</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
@@ -14679,6 +16212,9 @@
       <c r="H511" s="0">
         <v>0.37339422106742859</v>
       </c>
+      <c r="I511" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
@@ -14705,6 +16241,9 @@
       <c r="H512" s="0">
         <v>0.11183271557092667</v>
       </c>
+      <c r="I512" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
@@ -14731,6 +16270,9 @@
       <c r="H513" s="0">
         <v>0.030973451212048531</v>
       </c>
+      <c r="I513" s="0">
+        <v>72000</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
@@ -14757,6 +16299,9 @@
       <c r="H514" s="0">
         <v>0.42040708661079407</v>
       </c>
+      <c r="I514" s="0">
+        <v>56466</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
@@ -14783,6 +16328,9 @@
       <c r="H515" s="0">
         <v>0.47033596038818359</v>
       </c>
+      <c r="I515" s="0">
+        <v>64300</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
@@ -14809,6 +16357,9 @@
       <c r="H516" s="0">
         <v>0.096013687551021576</v>
       </c>
+      <c r="I516" s="0">
+        <v>62693</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
@@ -14835,6 +16386,9 @@
       <c r="H517" s="0">
         <v>0.013243267312645912</v>
       </c>
+      <c r="I517" s="0">
+        <v>73502</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
@@ -14861,6 +16415,9 @@
       <c r="H518" s="0">
         <v>0.51729756593704224</v>
       </c>
+      <c r="I518" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
@@ -14887,6 +16444,9 @@
       <c r="H519" s="0">
         <v>0.35555630922317505</v>
       </c>
+      <c r="I519" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
@@ -14913,6 +16473,9 @@
       <c r="H520" s="0">
         <v>0.11438519507646561</v>
       </c>
+      <c r="I520" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
@@ -14939,6 +16502,9 @@
       <c r="H521" s="0">
         <v>0.012760921381413937</v>
       </c>
+      <c r="I521" s="0">
+        <v>39748</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
@@ -14965,6 +16531,9 @@
       <c r="H522" s="0">
         <v>0.42291831970214844</v>
       </c>
+      <c r="I522" s="0">
+        <v>88385</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
@@ -14991,6 +16560,9 @@
       <c r="H523" s="0">
         <v>0.46139851212501526</v>
       </c>
+      <c r="I523" s="0">
+        <v>97282</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
@@ -15017,6 +16589,9 @@
       <c r="H524" s="0">
         <v>0.09909636527299881</v>
       </c>
+      <c r="I524" s="0">
+        <v>103000</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
@@ -15043,6 +16618,9 @@
       <c r="H525" s="0">
         <v>0.016586815938353539</v>
       </c>
+      <c r="I525" s="0">
+        <v>116906</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
@@ -15069,6 +16647,9 @@
       <c r="H526" s="0">
         <v>0.54431188106536865</v>
       </c>
+      <c r="I526" s="0">
+        <v>22964</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
@@ -15095,6 +16676,9 @@
       <c r="H527" s="0">
         <v>0.33680069446563721</v>
       </c>
+      <c r="I527" s="0">
+        <v>25000</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
@@ -15121,6 +16705,9 @@
       <c r="H528" s="0">
         <v>0.094630561769008636</v>
       </c>
+      <c r="I528" s="0">
+        <v>27239</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
@@ -15147,6 +16734,9 @@
       <c r="H529" s="0">
         <v>0.024256879463791847</v>
       </c>
+      <c r="I529" s="0">
+        <v>30000</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
@@ -15173,6 +16763,9 @@
       <c r="H530" s="0">
         <v>0.47728261351585388</v>
       </c>
+      <c r="I530" s="0">
+        <v>37832</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
@@ -15199,6 +16792,9 @@
       <c r="H531" s="0">
         <v>0.41649574041366577</v>
       </c>
+      <c r="I531" s="0">
+        <v>43513</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
@@ -15225,6 +16821,9 @@
       <c r="H532" s="0">
         <v>0.095033876597881317</v>
       </c>
+      <c r="I532" s="0">
+        <v>37832</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
@@ -15251,6 +16850,9 @@
       <c r="H533" s="0">
         <v>0.01118776760995388</v>
       </c>
+      <c r="I533" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
@@ -15277,6 +16879,9 @@
       <c r="H534" s="0">
         <v>0.70638412237167358</v>
       </c>
+      <c r="I534" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
@@ -15303,6 +16908,9 @@
       <c r="H535" s="0">
         <v>0.17943379282951355</v>
       </c>
+      <c r="I535" s="0">
+        <v>42484</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
@@ -15329,6 +16937,9 @@
       <c r="H536" s="0">
         <v>0.094569630920886993</v>
       </c>
+      <c r="I536" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
@@ -15355,6 +16966,9 @@
       <c r="H537" s="0">
         <v>0.019612452015280724</v>
       </c>
+      <c r="I537" s="0">
+        <v>48000</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
@@ -15381,6 +16995,9 @@
       <c r="H538" s="0">
         <v>0.44051313400268555</v>
       </c>
+      <c r="I538" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
@@ -15407,6 +17024,9 @@
       <c r="H539" s="0">
         <v>0.46056085824966431</v>
       </c>
+      <c r="I539" s="0">
+        <v>68893</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
@@ -15433,6 +17053,9 @@
       <c r="H540" s="0">
         <v>0.084486871957778931</v>
       </c>
+      <c r="I540" s="0">
+        <v>62323</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
@@ -15459,6 +17082,9 @@
       <c r="H541" s="0">
         <v>0.014439140446484089</v>
       </c>
+      <c r="I541" s="0">
+        <v>96317</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
@@ -15485,6 +17111,9 @@
       <c r="H542" s="0">
         <v>0.54790478944778442</v>
       </c>
+      <c r="I542" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
@@ -15511,6 +17140,9 @@
       <c r="H543" s="0">
         <v>0.33978691697120667</v>
       </c>
+      <c r="I543" s="0">
+        <v>36743</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
@@ -15537,6 +17169,9 @@
       <c r="H544" s="0">
         <v>0.0959305539727211</v>
       </c>
+      <c r="I544" s="0">
+        <v>38156</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
@@ -15563,6 +17198,9 @@
       <c r="H545" s="0">
         <v>0.016377745196223259</v>
       </c>
+      <c r="I545" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
@@ -15589,6 +17227,9 @@
       <c r="H546" s="0">
         <v>0.56886440515518188</v>
       </c>
+      <c r="I546" s="0">
+        <v>28000</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
@@ -15615,6 +17256,9 @@
       <c r="H547" s="0">
         <v>0.31826475262641907</v>
       </c>
+      <c r="I547" s="0">
+        <v>30000</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
@@ -15641,6 +17285,9 @@
       <c r="H548" s="0">
         <v>0.096802368760108948</v>
       </c>
+      <c r="I548" s="0">
+        <v>31002</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
@@ -15667,6 +17314,9 @@
       <c r="H549" s="0">
         <v>0.016068499535322189</v>
       </c>
+      <c r="I549" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
@@ -15693,6 +17343,9 @@
       <c r="H550" s="0">
         <v>0.57101172208786011</v>
       </c>
+      <c r="I550" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
@@ -15719,6 +17372,9 @@
       <c r="H551" s="0">
         <v>0.32611829042434692</v>
       </c>
+      <c r="I551" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
@@ -15745,6 +17401,9 @@
       <c r="H552" s="0">
         <v>0.095240883529186249</v>
       </c>
+      <c r="I552" s="0">
+        <v>40917</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
@@ -15771,6 +17430,9 @@
       <c r="H553" s="0">
         <v>0.007629114668816328</v>
       </c>
+      <c r="I553" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
@@ -15797,6 +17459,9 @@
       <c r="H554" s="0">
         <v>0.54068285226821899</v>
       </c>
+      <c r="I554" s="0">
+        <v>41336</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
@@ -15823,6 +17488,9 @@
       <c r="H555" s="0">
         <v>0.35898977518081665</v>
       </c>
+      <c r="I555" s="0">
+        <v>52000</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
@@ -15849,6 +17517,9 @@
       <c r="H556" s="0">
         <v>0.085121691226959229</v>
       </c>
+      <c r="I556" s="0">
+        <v>50695</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
@@ -15875,6 +17546,9 @@
       <c r="H557" s="0">
         <v>0.015205668285489082</v>
       </c>
+      <c r="I557" s="0">
+        <v>62693</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
@@ -15901,6 +17575,9 @@
       <c r="H558" s="0">
         <v>0.59596794843673706</v>
       </c>
+      <c r="I558" s="0">
+        <v>32734</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
@@ -15927,6 +17604,9 @@
       <c r="H559" s="0">
         <v>0.31041485071182251</v>
       </c>
+      <c r="I559" s="0">
+        <v>33200</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
@@ -15953,6 +17633,9 @@
       <c r="H560" s="0">
         <v>0.081129878759384155</v>
       </c>
+      <c r="I560" s="0">
+        <v>32734</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
@@ -15979,6 +17662,9 @@
       <c r="H561" s="0">
         <v>0.012487306259572506</v>
       </c>
+      <c r="I561" s="0">
+        <v>25261</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
@@ -16005,6 +17691,9 @@
       <c r="H562" s="0">
         <v>0.4711240828037262</v>
       </c>
+      <c r="I562" s="0">
+        <v>49101</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
@@ -16031,6 +17720,9 @@
       <c r="H563" s="0">
         <v>0.43751657009124756</v>
       </c>
+      <c r="I563" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
@@ -16057,6 +17749,9 @@
       <c r="H564" s="0">
         <v>0.079066067934036255</v>
       </c>
+      <c r="I564" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
@@ -16083,6 +17778,9 @@
       <c r="H565" s="0">
         <v>0.012293269857764244</v>
       </c>
+      <c r="I565" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
@@ -16109,6 +17807,9 @@
       <c r="H566" s="0">
         <v>0.48190930485725403</v>
       </c>
+      <c r="I566" s="0">
+        <v>91857</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
@@ -16135,6 +17836,9 @@
       <c r="H567" s="0">
         <v>0.41341289877891541</v>
       </c>
+      <c r="I567" s="0">
+        <v>103768</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
@@ -16161,6 +17865,9 @@
       <c r="H568" s="0">
         <v>0.087350837886333466</v>
       </c>
+      <c r="I568" s="0">
+        <v>100000</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
@@ -16187,6 +17894,9 @@
       <c r="H569" s="0">
         <v>0.017326969653367996</v>
       </c>
+      <c r="I569" s="0">
+        <v>74634</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
@@ -16213,6 +17923,9 @@
       <c r="H570" s="0">
         <v>0.4159010648727417</v>
       </c>
+      <c r="I570" s="0">
+        <v>51670</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
@@ -16239,6 +17952,9 @@
       <c r="H571" s="0">
         <v>0.50932860374450684</v>
       </c>
+      <c r="I571" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
@@ -16265,6 +17981,9 @@
       <c r="H572" s="0">
         <v>0.072508834302425385</v>
       </c>
+      <c r="I572" s="0">
+        <v>64299</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
@@ -16291,6 +18010,9 @@
       <c r="H573" s="0">
         <v>0.0022614840418100357</v>
       </c>
+      <c r="I573" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
@@ -16317,6 +18039,9 @@
       <c r="H574" s="0">
         <v>0.60281765460968018</v>
       </c>
+      <c r="I574" s="0">
+        <v>63152</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
@@ -16343,6 +18068,9 @@
       <c r="H575" s="0">
         <v>0.29753860831260681</v>
       </c>
+      <c r="I575" s="0">
+        <v>70144</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
@@ -16369,6 +18097,9 @@
       <c r="H576" s="0">
         <v>0.083909109234809875</v>
       </c>
+      <c r="I576" s="0">
+        <v>75664</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
@@ -16395,6 +18126,9 @@
       <c r="H577" s="0">
         <v>0.015734642744064331</v>
       </c>
+      <c r="I577" s="0">
+        <v>86000</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
@@ -16421,6 +18155,9 @@
       <c r="H578" s="0">
         <v>0.4652157723903656</v>
       </c>
+      <c r="I578" s="0">
+        <v>30396</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
@@ -16447,6 +18184,9 @@
       <c r="H579" s="0">
         <v>0.4466145932674408</v>
       </c>
+      <c r="I579" s="0">
+        <v>33800</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
@@ -16473,6 +18213,9 @@
       <c r="H580" s="0">
         <v>0.076822914183139801</v>
       </c>
+      <c r="I580" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
@@ -16499,6 +18242,9 @@
       <c r="H581" s="0">
         <v>0.01134672574698925</v>
       </c>
+      <c r="I581" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
@@ -16525,6 +18271,9 @@
       <c r="H582" s="0">
         <v>0.56145596504211426</v>
       </c>
+      <c r="I582" s="0">
+        <v>62323</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
@@ -16551,6 +18300,9 @@
       <c r="H583" s="0">
         <v>0.342887282371521</v>
       </c>
+      <c r="I583" s="0">
+        <v>68893</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
@@ -16577,6 +18329,9 @@
       <c r="H584" s="0">
         <v>0.079948417842388153</v>
       </c>
+      <c r="I584" s="0">
+        <v>75000</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
@@ -16603,6 +18358,9 @@
       <c r="H585" s="0">
         <v>0.015708340331912041</v>
       </c>
+      <c r="I585" s="0">
+        <v>116906</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
@@ -16629,6 +18387,9 @@
       <c r="H586" s="0">
         <v>0.5382763147354126</v>
       </c>
+      <c r="I586" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
@@ -16655,6 +18416,9 @@
       <c r="H587" s="0">
         <v>0.36045628786087036</v>
       </c>
+      <c r="I587" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
@@ -16681,6 +18445,9 @@
       <c r="H588" s="0">
         <v>0.088846638798713684</v>
       </c>
+      <c r="I588" s="0">
+        <v>48725</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
@@ -16707,6 +18474,9 @@
       <c r="H589" s="0">
         <v>0.012420785613358021</v>
       </c>
+      <c r="I589" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
@@ -16733,6 +18503,9 @@
       <c r="H590" s="0">
         <v>0.4565870463848114</v>
       </c>
+      <c r="I590" s="0">
+        <v>56207</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
@@ -16759,6 +18532,9 @@
       <c r="H591" s="0">
         <v>0.46241140365600586</v>
       </c>
+      <c r="I591" s="0">
+        <v>66636</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
@@ -16785,6 +18561,9 @@
       <c r="H592" s="0">
         <v>0.06984972208738327</v>
       </c>
+      <c r="I592" s="0">
+        <v>64855</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
@@ -16811,6 +18590,9 @@
       <c r="H593" s="0">
         <v>0.01115183811634779</v>
       </c>
+      <c r="I593" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
@@ -16837,6 +18619,9 @@
       <c r="H594" s="0">
         <v>0.53233307600021362</v>
       </c>
+      <c r="I594" s="0">
+        <v>42000</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
@@ -16863,6 +18648,9 @@
       <c r="H595" s="0">
         <v>0.37161877751350403</v>
       </c>
+      <c r="I595" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
@@ -16889,6 +18677,9 @@
       <c r="H596" s="0">
         <v>0.071639895439147949</v>
       </c>
+      <c r="I596" s="0">
+        <v>48862.5</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
@@ -16915,6 +18706,9 @@
       <c r="H597" s="0">
         <v>0.024408284574747086</v>
       </c>
+      <c r="I597" s="0">
+        <v>46983.5</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
@@ -16941,6 +18735,9 @@
       <c r="H598" s="0">
         <v>0.42394638061523438</v>
       </c>
+      <c r="I598" s="0">
+        <v>86473</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
@@ -16967,6 +18764,9 @@
       <c r="H599" s="0">
         <v>0.4948960542678833</v>
       </c>
+      <c r="I599" s="0">
+        <v>96317</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
@@ -16993,6 +18793,9 @@
       <c r="H600" s="0">
         <v>0.069725655019283295</v>
       </c>
+      <c r="I600" s="0">
+        <v>90651</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
@@ -17019,6 +18822,9 @@
       <c r="H601" s="0">
         <v>0.01143190823495388</v>
       </c>
+      <c r="I601" s="0">
+        <v>101983</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
@@ -17045,6 +18851,9 @@
       <c r="H602" s="0">
         <v>0.52746427059173584</v>
       </c>
+      <c r="I602" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
@@ -17071,6 +18880,9 @@
       <c r="H603" s="0">
         <v>0.38632553815841675</v>
       </c>
+      <c r="I603" s="0">
+        <v>54391</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
@@ -17097,6 +18909,9 @@
       <c r="H604" s="0">
         <v>0.075138874351978302</v>
       </c>
+      <c r="I604" s="0">
+        <v>55000</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
@@ -17123,6 +18938,9 @@
       <c r="H605" s="0">
         <v>0.011071315035223961</v>
       </c>
+      <c r="I605" s="0">
+        <v>59707</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
@@ -17149,6 +18967,9 @@
       <c r="H606" s="0">
         <v>0.59300345182418823</v>
       </c>
+      <c r="I606" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
@@ -17175,6 +18996,9 @@
       <c r="H607" s="0">
         <v>0.31068390607833862</v>
       </c>
+      <c r="I607" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
@@ -17201,6 +19025,9 @@
       <c r="H608" s="0">
         <v>0.075953356921672821</v>
       </c>
+      <c r="I608" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
@@ -17227,6 +19054,9 @@
       <c r="H609" s="0">
         <v>0.020359281450510025</v>
       </c>
+      <c r="I609" s="0">
+        <v>72482</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
@@ -17253,6 +19083,9 @@
       <c r="H610" s="0">
         <v>0.59015578031539917</v>
       </c>
+      <c r="I610" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
@@ -17279,6 +19112,9 @@
       <c r="H611" s="0">
         <v>0.32325303554534912</v>
       </c>
+      <c r="I611" s="0">
+        <v>37410</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
@@ -17305,6 +19141,9 @@
       <c r="H612" s="0">
         <v>0.075501300394535065</v>
       </c>
+      <c r="I612" s="0">
+        <v>36743</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
@@ -17331,6 +19170,9 @@
       <c r="H613" s="0">
         <v>0.011089883744716644</v>
       </c>
+      <c r="I613" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
@@ -17357,6 +19199,9 @@
       <c r="H614" s="0">
         <v>0.51213359832763672</v>
       </c>
+      <c r="I614" s="0">
+        <v>39728</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
@@ -17383,6 +19228,9 @@
       <c r="H615" s="0">
         <v>0.3996451199054718</v>
       </c>
+      <c r="I615" s="0">
+        <v>42719</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
@@ -17409,6 +19257,9 @@
       <c r="H616" s="0">
         <v>0.071503683924674988</v>
       </c>
+      <c r="I616" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
@@ -17435,6 +19286,9 @@
       <c r="H617" s="0">
         <v>0.016717599704861641</v>
       </c>
+      <c r="I617" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
@@ -17461,6 +19315,9 @@
       <c r="H618" s="0">
         <v>0.63856256008148193</v>
       </c>
+      <c r="I618" s="0">
+        <v>26300</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="0">
@@ -17487,6 +19344,9 @@
       <c r="H619" s="0">
         <v>0.27764341235160828</v>
       </c>
+      <c r="I619" s="0">
+        <v>32000</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="0">
@@ -17513,6 +19373,9 @@
       <c r="H620" s="0">
         <v>0.074291639029979706</v>
       </c>
+      <c r="I620" s="0">
+        <v>22964</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="0">
@@ -17539,6 +19402,9 @@
       <c r="H621" s="0">
         <v>0.0095024183392524719</v>
       </c>
+      <c r="I621" s="0">
+        <v>11941</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="0">
@@ -17565,6 +19431,9 @@
       <c r="H622" s="0">
         <v>0.57450175285339355</v>
       </c>
+      <c r="I622" s="0">
+        <v>36743</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
@@ -17591,6 +19460,9 @@
       <c r="H623" s="0">
         <v>0.3486868143081665</v>
       </c>
+      <c r="I623" s="0">
+        <v>38111</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
@@ -17617,6 +19489,9 @@
       <c r="H624" s="0">
         <v>0.0674409419298172</v>
       </c>
+      <c r="I624" s="0">
+        <v>37000</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
@@ -17643,6 +19518,9 @@
       <c r="H625" s="0">
         <v>0.0093704629689455032</v>
       </c>
+      <c r="I625" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
@@ -17669,6 +19547,9 @@
       <c r="H626" s="0">
         <v>0.6804543137550354</v>
       </c>
+      <c r="I626" s="0">
+        <v>28057</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
@@ -17695,6 +19576,9 @@
       <c r="H627" s="0">
         <v>0.22264790534973145</v>
       </c>
+      <c r="I627" s="0">
+        <v>34589</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="0">
@@ -17721,6 +19605,9 @@
       <c r="H628" s="0">
         <v>0.070656046271324158</v>
       </c>
+      <c r="I628" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="0">
@@ -17747,6 +19634,9 @@
       <c r="H629" s="0">
         <v>0.026241736486554146</v>
       </c>
+      <c r="I629" s="0">
+        <v>31728</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="0">
@@ -17773,6 +19663,9 @@
       <c r="H630" s="0">
         <v>0.49699944257736206</v>
       </c>
+      <c r="I630" s="0">
+        <v>55524</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="0">
@@ -17799,6 +19692,9 @@
       <c r="H631" s="0">
         <v>0.42929887771606445</v>
       </c>
+      <c r="I631" s="0">
+        <v>64855</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
@@ -17825,6 +19721,9 @@
       <c r="H632" s="0">
         <v>0.064693331718444824</v>
       </c>
+      <c r="I632" s="0">
+        <v>65722</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
@@ -17851,6 +19750,9 @@
       <c r="H633" s="0">
         <v>0.009008326567709446</v>
       </c>
+      <c r="I633" s="0">
+        <v>60000</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
@@ -17877,6 +19779,9 @@
       <c r="H634" s="0">
         <v>0.65504121780395508</v>
       </c>
+      <c r="I634" s="0">
+        <v>41246</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
@@ -17903,6 +19808,9 @@
       <c r="H635" s="0">
         <v>0.26363348960876465</v>
       </c>
+      <c r="I635" s="0">
+        <v>37410</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="0">
@@ -17929,6 +19837,9 @@
       <c r="H636" s="0">
         <v>0.064679771661758423</v>
       </c>
+      <c r="I636" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="0">
@@ -17955,6 +19866,9 @@
       <c r="H637" s="0">
         <v>0.016645530238747597</v>
       </c>
+      <c r="I637" s="0">
+        <v>20537</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="0">
@@ -17981,6 +19895,9 @@
       <c r="H638" s="0">
         <v>0.5724073052406311</v>
       </c>
+      <c r="I638" s="0">
+        <v>19520</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="0">
@@ -18007,6 +19924,9 @@
       <c r="H639" s="0">
         <v>0.32734128832817078</v>
       </c>
+      <c r="I639" s="0">
+        <v>24550</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="0">
@@ -18033,6 +19953,9 @@
       <c r="H640" s="0">
         <v>0.071401633322238922</v>
       </c>
+      <c r="I640" s="0">
+        <v>44424</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="0">
@@ -18059,6 +19982,9 @@
       <c r="H641" s="0">
         <v>0.028849780559539795</v>
       </c>
+      <c r="I641" s="0">
+        <v>86119</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="0">
@@ -18085,6 +20011,9 @@
       <c r="H642" s="0">
         <v>0.632712721824646</v>
       </c>
+      <c r="I642" s="0">
+        <v>37410</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="0">
@@ -18111,6 +20040,9 @@
       <c r="H643" s="0">
         <v>0.28236487507820129</v>
       </c>
+      <c r="I643" s="0">
+        <v>43632</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="0">
@@ -18137,6 +20069,9 @@
       <c r="H644" s="0">
         <v>0.070882976055145264</v>
       </c>
+      <c r="I644" s="0">
+        <v>44000</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="0">
@@ -18163,6 +20098,9 @@
       <c r="H645" s="0">
         <v>0.014039412140846252</v>
       </c>
+      <c r="I645" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="0">
@@ -18189,6 +20127,9 @@
       <c r="H646" s="0">
         <v>0.53561323881149292</v>
       </c>
+      <c r="I646" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="0">
@@ -18215,6 +20156,9 @@
       <c r="H647" s="0">
         <v>0.38226261734962463</v>
       </c>
+      <c r="I647" s="0">
+        <v>63000</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="0">
@@ -18241,6 +20185,9 @@
       <c r="H648" s="0">
         <v>0.066229149699211121</v>
       </c>
+      <c r="I648" s="0">
+        <v>66636</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="0">
@@ -18267,6 +20214,9 @@
       <c r="H649" s="0">
         <v>0.015894996002316475</v>
       </c>
+      <c r="I649" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="0">
@@ -18293,6 +20243,9 @@
       <c r="H650" s="0">
         <v>0.52675044536590576</v>
       </c>
+      <c r="I650" s="0">
+        <v>25942</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="0">
@@ -18319,6 +20272,9 @@
       <c r="H651" s="0">
         <v>0.38960170745849609</v>
       </c>
+      <c r="I651" s="0">
+        <v>25942</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="0">
@@ -18345,6 +20301,9 @@
       <c r="H652" s="0">
         <v>0.066973775625228882</v>
       </c>
+      <c r="I652" s="0">
+        <v>29000</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="0">
@@ -18371,6 +20330,9 @@
       <c r="H653" s="0">
         <v>0.016674039885401726</v>
       </c>
+      <c r="I653" s="0">
+        <v>26699</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="0">
@@ -18397,6 +20359,9 @@
       <c r="H654" s="0">
         <v>0.59845942258834839</v>
       </c>
+      <c r="I654" s="0">
+        <v>38913</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="0">
@@ -18423,6 +20388,9 @@
       <c r="H655" s="0">
         <v>0.32706737518310547</v>
       </c>
+      <c r="I655" s="0">
+        <v>47560</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="0">
@@ -18449,6 +20417,9 @@
       <c r="H656" s="0">
         <v>0.067289270460605621</v>
       </c>
+      <c r="I656" s="0">
+        <v>57000</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="0">
@@ -18475,6 +20446,9 @@
       <c r="H657" s="0">
         <v>0.0071839080192148685</v>
       </c>
+      <c r="I657" s="0">
+        <v>71388</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="0">
@@ -18501,6 +20475,9 @@
       <c r="H658" s="0">
         <v>0.68744581937789917</v>
       </c>
+      <c r="I658" s="0">
+        <v>40917</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="0">
@@ -18527,6 +20504,9 @@
       <c r="H659" s="0">
         <v>0.24161840975284576</v>
       </c>
+      <c r="I659" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="0">
@@ -18553,6 +20533,9 @@
       <c r="H660" s="0">
         <v>0.065561838448047638</v>
       </c>
+      <c r="I660" s="0">
+        <v>59707</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="0">
@@ -18579,6 +20562,9 @@
       <c r="H661" s="0">
         <v>0.0053739207796752453</v>
       </c>
+      <c r="I661" s="0">
+        <v>47560</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="0">
@@ -18605,6 +20591,9 @@
       <c r="H662" s="0">
         <v>0.54894351959228516</v>
       </c>
+      <c r="I662" s="0">
+        <v>52124</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="0">
@@ -18631,6 +20620,9 @@
       <c r="H663" s="0">
         <v>0.3663935661315918</v>
       </c>
+      <c r="I663" s="0">
+        <v>44780</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="0">
@@ -18657,6 +20649,9 @@
       <c r="H664" s="0">
         <v>0.065545491874217987</v>
       </c>
+      <c r="I664" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="0">
@@ -18683,6 +20678,9 @@
       <c r="H665" s="0">
         <v>0.019117435440421104</v>
       </c>
+      <c r="I665" s="0">
+        <v>10765</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="0">
@@ -18709,6 +20707,9 @@
       <c r="H666" s="0">
         <v>0.70471131801605225</v>
       </c>
+      <c r="I666" s="0">
+        <v>40917</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="0">
@@ -18735,6 +20736,9 @@
       <c r="H667" s="0">
         <v>0.22646576166152954</v>
       </c>
+      <c r="I667" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="0">
@@ -18761,6 +20765,9 @@
       <c r="H668" s="0">
         <v>0.058884024620056152</v>
       </c>
+      <c r="I668" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="0">
@@ -18787,6 +20794,9 @@
       <c r="H669" s="0">
         <v>0.0099389124661684036</v>
       </c>
+      <c r="I669" s="0">
+        <v>48641</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="0">
@@ -18813,6 +20823,9 @@
       <c r="H670" s="0">
         <v>0.62896066904067993</v>
       </c>
+      <c r="I670" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="0">
@@ -18839,6 +20852,9 @@
       <c r="H671" s="0">
         <v>0.29761740565299988</v>
       </c>
+      <c r="I671" s="0">
+        <v>40647</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="0">
@@ -18865,6 +20881,9 @@
       <c r="H672" s="0">
         <v>0.062994226813316345</v>
       </c>
+      <c r="I672" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="0">
@@ -18891,6 +20910,9 @@
       <c r="H673" s="0">
         <v>0.010427732020616531</v>
       </c>
+      <c r="I673" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="0">
@@ -18917,6 +20939,9 @@
       <c r="H674" s="0">
         <v>0.61817502975463867</v>
       </c>
+      <c r="I674" s="0">
+        <v>31346</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="0">
@@ -18943,6 +20968,9 @@
       <c r="H675" s="0">
         <v>0.30198204517364502</v>
       </c>
+      <c r="I675" s="0">
+        <v>30000</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="0">
@@ -18969,6 +20997,9 @@
       <c r="H676" s="0">
         <v>0.054786834865808487</v>
       </c>
+      <c r="I676" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="0">
@@ -18995,6 +21026,9 @@
       <c r="H677" s="0">
         <v>0.025056095793843269</v>
       </c>
+      <c r="I677" s="0">
+        <v>42156</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="0">
@@ -19021,6 +21055,9 @@
       <c r="H678" s="0">
         <v>0.72793978452682495</v>
       </c>
+      <c r="I678" s="0">
+        <v>31565</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="0">
@@ -19047,6 +21084,9 @@
       <c r="H679" s="0">
         <v>0.21277500689029694</v>
       </c>
+      <c r="I679" s="0">
+        <v>33700</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="0">
@@ -19073,6 +21113,9 @@
       <c r="H680" s="0">
         <v>0.050746377557516098</v>
       </c>
+      <c r="I680" s="0">
+        <v>35022</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="0">
@@ -19099,6 +21142,9 @@
       <c r="H681" s="0">
         <v>0.0085388468578457832</v>
       </c>
+      <c r="I681" s="0">
+        <v>30266</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="0">
@@ -19125,6 +21171,9 @@
       <c r="H682" s="0">
         <v>0.73633599281311035</v>
       </c>
+      <c r="I682" s="0">
+        <v>28329</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="0">
@@ -19151,6 +21200,9 @@
       <c r="H683" s="0">
         <v>0.20662447810173035</v>
       </c>
+      <c r="I683" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="0">
@@ -19177,6 +21229,9 @@
       <c r="H684" s="0">
         <v>0.051532834768295288</v>
       </c>
+      <c r="I684" s="0">
+        <v>30914</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="0">
@@ -19203,6 +21258,9 @@
       <c r="H685" s="0">
         <v>0.0055066985078155994</v>
       </c>
+      <c r="I685" s="0">
+        <v>38580</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="0">
@@ -19229,6 +21287,9 @@
       <c r="H686" s="0">
         <v>0.62879365682601929</v>
       </c>
+      <c r="I686" s="0">
+        <v>48100</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="0">
@@ -19255,6 +21316,9 @@
       <c r="H687" s="0">
         <v>0.30154871940612793</v>
       </c>
+      <c r="I687" s="0">
+        <v>53777</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="0">
@@ -19281,6 +21345,9 @@
       <c r="H688" s="0">
         <v>0.059656921774148941</v>
       </c>
+      <c r="I688" s="0">
+        <v>63152</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="0">
@@ -19307,6 +21374,9 @@
       <c r="H689" s="0">
         <v>0.010000694543123245</v>
       </c>
+      <c r="I689" s="0">
+        <v>67017</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="0">
@@ -19333,6 +21403,9 @@
       <c r="H690" s="0">
         <v>0.58158695697784424</v>
       </c>
+      <c r="I690" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="0">
@@ -19359,6 +21432,9 @@
       <c r="H691" s="0">
         <v>0.36233559250831604</v>
       </c>
+      <c r="I691" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="0">
@@ -19385,6 +21461,9 @@
       <c r="H692" s="0">
         <v>0.052175171673297882</v>
       </c>
+      <c r="I692" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="0">
@@ -19411,6 +21490,9 @@
       <c r="H693" s="0">
         <v>0.0039022979326546192</v>
       </c>
+      <c r="I693" s="0">
+        <v>180512</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="0">
@@ -19437,6 +21519,9 @@
       <c r="H694" s="0">
         <v>0.60434204339981079</v>
       </c>
+      <c r="I694" s="0">
+        <v>46000</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="0">
@@ -19463,6 +21548,9 @@
       <c r="H695" s="0">
         <v>0.33699038624763489</v>
       </c>
+      <c r="I695" s="0">
+        <v>59707</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="0">
@@ -19489,6 +21577,9 @@
       <c r="H696" s="0">
         <v>0.052925437688827515</v>
       </c>
+      <c r="I696" s="0">
+        <v>55000</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="0">
@@ -19515,6 +21606,9 @@
       <c r="H697" s="0">
         <v>0.0057421410456299782</v>
       </c>
+      <c r="I697" s="0">
+        <v>58923</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="0">
@@ -19541,6 +21635,9 @@
       <c r="H698" s="0">
         <v>0.68071651458740234</v>
       </c>
+      <c r="I698" s="0">
+        <v>33994</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="0">
@@ -19567,6 +21664,9 @@
       <c r="H699" s="0">
         <v>0.25678852200508118</v>
       </c>
+      <c r="I699" s="0">
+        <v>37176</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="0">
@@ -19593,6 +21693,9 @@
       <c r="H700" s="0">
         <v>0.05404474213719368</v>
       </c>
+      <c r="I700" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="0">
@@ -19619,6 +21722,9 @@
       <c r="H701" s="0">
         <v>0.0084501905366778374</v>
       </c>
+      <c r="I701" s="0">
+        <v>31728</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="0">
@@ -19645,6 +21751,9 @@
       <c r="H702" s="0">
         <v>0.52433329820632935</v>
       </c>
+      <c r="I702" s="0">
+        <v>42086</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="0">
@@ -19671,6 +21780,9 @@
       <c r="H703" s="0">
         <v>0.41710847616195679</v>
       </c>
+      <c r="I703" s="0">
+        <v>51670</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="0">
@@ -19697,6 +21809,9 @@
       <c r="H704" s="0">
         <v>0.054601565003395081</v>
       </c>
+      <c r="I704" s="0">
+        <v>64855</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="0">
@@ -19723,6 +21838,9 @@
       <c r="H705" s="0">
         <v>0.003956635482609272</v>
       </c>
+      <c r="I705" s="0">
+        <v>14029</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="0">
@@ -19749,6 +21867,9 @@
       <c r="H706" s="0">
         <v>0.6071053147315979</v>
       </c>
+      <c r="I706" s="0">
+        <v>52000</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="0">
@@ -19775,6 +21896,9 @@
       <c r="H707" s="0">
         <v>0.33390173316001892</v>
       </c>
+      <c r="I707" s="0">
+        <v>63152</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="0">
@@ -19801,6 +21925,9 @@
       <c r="H708" s="0">
         <v>0.051024358719587326</v>
       </c>
+      <c r="I708" s="0">
+        <v>61612</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="0">
@@ -19827,6 +21954,9 @@
       <c r="H709" s="0">
         <v>0.0079686092212796211</v>
       </c>
+      <c r="I709" s="0">
+        <v>62323</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="0">
@@ -19853,6 +21983,9 @@
       <c r="H710" s="0">
         <v>0.63460057973861694</v>
       </c>
+      <c r="I710" s="0">
+        <v>39039</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="0">
@@ -19879,6 +22012,9 @@
       <c r="H711" s="0">
         <v>0.3078484833240509</v>
       </c>
+      <c r="I711" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="0">
@@ -19905,6 +22041,9 @@
       <c r="H712" s="0">
         <v>0.051319751888513565</v>
       </c>
+      <c r="I712" s="0">
+        <v>67745</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="0">
@@ -19931,6 +22070,9 @@
       <c r="H713" s="0">
         <v>0.0062311841174960136</v>
       </c>
+      <c r="I713" s="0">
+        <v>33994</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="0">
@@ -19957,6 +22099,9 @@
       <c r="H714" s="0">
         <v>0.64995366334915161</v>
       </c>
+      <c r="I714" s="0">
+        <v>41075</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="0">
@@ -19983,6 +22128,9 @@
       <c r="H715" s="0">
         <v>0.28571698069572449</v>
       </c>
+      <c r="I715" s="0">
+        <v>49000</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="0">
@@ -20009,6 +22157,9 @@
       <c r="H716" s="0">
         <v>0.053809624165296555</v>
       </c>
+      <c r="I716" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="0">
@@ -20035,6 +22186,9 @@
       <c r="H717" s="0">
         <v>0.010519743897020817</v>
       </c>
+      <c r="I717" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="0">
@@ -20061,6 +22215,9 @@
       <c r="H718" s="0">
         <v>0.59739220142364502</v>
       </c>
+      <c r="I718" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="0">
@@ -20087,6 +22244,9 @@
       <c r="H719" s="0">
         <v>0.34817638993263245</v>
       </c>
+      <c r="I719" s="0">
+        <v>52608</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="0">
@@ -20113,6 +22273,9 @@
       <c r="H720" s="0">
         <v>0.04969555139541626</v>
       </c>
+      <c r="I720" s="0">
+        <v>59450</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="0">
@@ -20139,6 +22302,9 @@
       <c r="H721" s="0">
         <v>0.0047358386218547821</v>
       </c>
+      <c r="I721" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="0">
@@ -20165,6 +22331,9 @@
       <c r="H722" s="0">
         <v>0.70421820878982544</v>
       </c>
+      <c r="I722" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="0">
@@ -20191,6 +22360,9 @@
       <c r="H723" s="0">
         <v>0.23192466795444489</v>
       </c>
+      <c r="I723" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="0">
@@ -20217,6 +22389,9 @@
       <c r="H724" s="0">
         <v>0.051365863531827927</v>
       </c>
+      <c r="I724" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="0">
@@ -20243,6 +22418,9 @@
       <c r="H725" s="0">
         <v>0.012491244822740555</v>
       </c>
+      <c r="I725" s="0">
+        <v>27557</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="0">
@@ -20269,6 +22447,9 @@
       <c r="H726" s="0">
         <v>0.68826055526733398</v>
       </c>
+      <c r="I726" s="0">
+        <v>58453</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="0">
@@ -20295,6 +22476,9 @@
       <c r="H727" s="0">
         <v>0.25308588147163391</v>
       </c>
+      <c r="I727" s="0">
+        <v>70144</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="0">
@@ -20321,6 +22505,9 @@
       <c r="H728" s="0">
         <v>0.053751204162836075</v>
       </c>
+      <c r="I728" s="0">
+        <v>65722</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="0">
@@ -20347,6 +22534,9 @@
       <c r="H729" s="0">
         <v>0.004902389831840992</v>
       </c>
+      <c r="I729" s="0">
+        <v>90797</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="0">
@@ -20373,6 +22563,9 @@
       <c r="H730" s="0">
         <v>0.73917520046234131</v>
       </c>
+      <c r="I730" s="0">
+        <v>32000</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="0">
@@ -20399,6 +22592,9 @@
       <c r="H731" s="0">
         <v>0.20259082317352295</v>
       </c>
+      <c r="I731" s="0">
+        <v>33508</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="0">
@@ -20425,6 +22621,9 @@
       <c r="H732" s="0">
         <v>0.047458700835704803</v>
       </c>
+      <c r="I732" s="0">
+        <v>31100</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="0">
@@ -20451,6 +22650,9 @@
       <c r="H733" s="0">
         <v>0.010775264352560043</v>
       </c>
+      <c r="I733" s="0">
+        <v>27023</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="0">
@@ -20477,6 +22679,9 @@
       <c r="H734" s="0">
         <v>0.49249365925788879</v>
       </c>
+      <c r="I734" s="0">
+        <v>67988</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="0">
@@ -20503,6 +22708,9 @@
       <c r="H735" s="0">
         <v>0.4586338996887207</v>
       </c>
+      <c r="I735" s="0">
+        <v>78079</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="0">
@@ -20529,6 +22737,9 @@
       <c r="H736" s="0">
         <v>0.043510757386684418</v>
       </c>
+      <c r="I736" s="0">
+        <v>86116</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="0">
@@ -20555,6 +22766,9 @@
       <c r="H737" s="0">
         <v>0.0053616687655448914</v>
       </c>
+      <c r="I737" s="0">
+        <v>114822</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="0">
@@ -20581,6 +22795,9 @@
       <c r="H738" s="0">
         <v>0.53163671493530273</v>
       </c>
+      <c r="I738" s="0">
+        <v>52000</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="0">
@@ -20607,6 +22824,9 @@
       <c r="H739" s="0">
         <v>0.41763961315155029</v>
       </c>
+      <c r="I739" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="0">
@@ -20633,6 +22853,9 @@
       <c r="H740" s="0">
         <v>0.045198164880275726</v>
       </c>
+      <c r="I740" s="0">
+        <v>53258</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="0">
@@ -20659,6 +22882,9 @@
       <c r="H741" s="0">
         <v>0.0055254967883229256</v>
       </c>
+      <c r="I741" s="0">
+        <v>44780</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="0">
@@ -20685,6 +22911,9 @@
       <c r="H742" s="0">
         <v>0.60286515951156616</v>
       </c>
+      <c r="I742" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="0">
@@ -20711,6 +22940,9 @@
       <c r="H743" s="0">
         <v>0.34303301572799683</v>
       </c>
+      <c r="I743" s="0">
+        <v>64855</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="0">
@@ -20737,6 +22969,9 @@
       <c r="H744" s="0">
         <v>0.048707332462072372</v>
       </c>
+      <c r="I744" s="0">
+        <v>64300</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="0">
@@ -20763,6 +22998,9 @@
       <c r="H745" s="0">
         <v>0.005394516047090292</v>
       </c>
+      <c r="I745" s="0">
+        <v>89716</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="0">
@@ -20789,6 +23027,9 @@
       <c r="H746" s="0">
         <v>0.74813896417617798</v>
       </c>
+      <c r="I746" s="0">
+        <v>29008</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="0">
@@ -20815,6 +23056,9 @@
       <c r="H747" s="0">
         <v>0.19781327247619629</v>
       </c>
+      <c r="I747" s="0">
+        <v>35072</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="0">
@@ -20841,6 +23085,9 @@
       <c r="H748" s="0">
         <v>0.043191686272621155</v>
       </c>
+      <c r="I748" s="0">
+        <v>34674</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="0">
@@ -20867,6 +23114,9 @@
       <c r="H749" s="0">
         <v>0.010856079868972301</v>
       </c>
+      <c r="I749" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="0">
@@ -20893,6 +23143,9 @@
       <c r="H750" s="0">
         <v>0.7690122127532959</v>
       </c>
+      <c r="I750" s="0">
+        <v>41336</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="0">
@@ -20919,6 +23172,9 @@
       <c r="H751" s="0">
         <v>0.18681417405605316</v>
       </c>
+      <c r="I751" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="0">
@@ -20945,6 +23201,9 @@
       <c r="H752" s="0">
         <v>0.041118662804365158</v>
       </c>
+      <c r="I752" s="0">
+        <v>42000</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="0">
@@ -20971,6 +23230,9 @@
       <c r="H753" s="0">
         <v>0.0030549783259630203</v>
       </c>
+      <c r="I753" s="0">
+        <v>24550</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="0">
@@ -20997,6 +23259,9 @@
       <c r="H754" s="0">
         <v>0.72246134281158447</v>
       </c>
+      <c r="I754" s="0">
+        <v>36241</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="0">
@@ -21023,6 +23288,9 @@
       <c r="H755" s="0">
         <v>0.22604814171791077</v>
       </c>
+      <c r="I755" s="0">
+        <v>35824</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="0">
@@ -21049,6 +23317,9 @@
       <c r="H756" s="0">
         <v>0.037541847676038742</v>
       </c>
+      <c r="I756" s="0">
+        <v>22000</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="0">
@@ -21075,6 +23346,9 @@
       <c r="H757" s="0">
         <v>0.013948668725788593</v>
       </c>
+      <c r="I757" s="0">
+        <v>34000</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="0">
@@ -21101,6 +23375,9 @@
       <c r="H758" s="0">
         <v>0.56540346145629883</v>
       </c>
+      <c r="I758" s="0">
+        <v>41926</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="0">
@@ -21127,6 +23404,9 @@
       <c r="H759" s="0">
         <v>0.38042798638343811</v>
       </c>
+      <c r="I759" s="0">
+        <v>41075</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="0">
@@ -21153,6 +23433,9 @@
       <c r="H760" s="0">
         <v>0.043334819376468658</v>
       </c>
+      <c r="I760" s="0">
+        <v>44424</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="0">
@@ -21179,6 +23462,9 @@
       <c r="H761" s="0">
         <v>0.010833704844117165</v>
       </c>
+      <c r="I761" s="0">
+        <v>27195</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="0">
@@ -21205,6 +23491,9 @@
       <c r="H762" s="0">
         <v>0.71838366985321045</v>
       </c>
+      <c r="I762" s="0">
+        <v>31728</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="0">
@@ -21231,6 +23520,9 @@
       <c r="H763" s="0">
         <v>0.23091584444046021</v>
       </c>
+      <c r="I763" s="0">
+        <v>41700</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="0">
@@ -21257,6 +23549,9 @@
       <c r="H764" s="0">
         <v>0.046125989407300949</v>
       </c>
+      <c r="I764" s="0">
+        <v>35127</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="0">
@@ -21283,6 +23578,9 @@
       <c r="H765" s="0">
         <v>0.0045744781382381916</v>
       </c>
+      <c r="I765" s="0">
+        <v>21618</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="0">
@@ -21309,6 +23607,9 @@
       <c r="H766" s="0">
         <v>0.65165120363235474</v>
       </c>
+      <c r="I766" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="0">
@@ -21335,6 +23636,9 @@
       <c r="H767" s="0">
         <v>0.29307505488395691</v>
       </c>
+      <c r="I767" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="0">
@@ -21361,6 +23665,9 @@
       <c r="H768" s="0">
         <v>0.046774856746196747</v>
       </c>
+      <c r="I768" s="0">
+        <v>43723</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="0">
@@ -21387,6 +23694,9 @@
       <c r="H769" s="0">
         <v>0.0084988698363304138</v>
       </c>
+      <c r="I769" s="0">
+        <v>37832</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="0">
@@ -21413,6 +23723,9 @@
       <c r="H770" s="0">
         <v>0.65069550275802612</v>
       </c>
+      <c r="I770" s="0">
+        <v>16367</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="0">
@@ -21439,6 +23752,9 @@
       <c r="H771" s="0">
         <v>0.29853764176368713</v>
       </c>
+      <c r="I771" s="0">
+        <v>16214</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="0">
@@ -21465,6 +23781,9 @@
       <c r="H772" s="0">
         <v>0.042563311755657196</v>
       </c>
+      <c r="I772" s="0">
+        <v>12041</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="0">
@@ -21491,6 +23810,9 @@
       <c r="H773" s="0">
         <v>0.0082035427913069725</v>
       </c>
+      <c r="I773" s="0">
+        <v>12860</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="0">
@@ -21517,6 +23839,9 @@
       <c r="H774" s="0">
         <v>0.66423523426055908</v>
       </c>
+      <c r="I774" s="0">
+        <v>39660</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="0">
@@ -21543,6 +23868,9 @@
       <c r="H775" s="0">
         <v>0.27746826410293579</v>
       </c>
+      <c r="I775" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="0">
@@ -21569,6 +23897,9 @@
       <c r="H776" s="0">
         <v>0.043420825153589249</v>
       </c>
+      <c r="I776" s="0">
+        <v>56263</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="0">
@@ -21595,6 +23926,9 @@
       <c r="H777" s="0">
         <v>0.014875653199851513</v>
       </c>
+      <c r="I777" s="0">
+        <v>23381</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="0">
@@ -21621,6 +23955,9 @@
       <c r="H778" s="0">
         <v>0.76412957906723022</v>
       </c>
+      <c r="I778" s="0">
+        <v>37832</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="0">
@@ -21647,6 +23984,9 @@
       <c r="H779" s="0">
         <v>0.18485558032989502</v>
       </c>
+      <c r="I779" s="0">
+        <v>43000</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="0">
@@ -21673,6 +24013,9 @@
       <c r="H780" s="0">
         <v>0.044145200401544571</v>
       </c>
+      <c r="I780" s="0">
+        <v>53000</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="0">
@@ -21699,6 +24042,9 @@
       <c r="H781" s="0">
         <v>0.0068696332164108753</v>
       </c>
+      <c r="I781" s="0">
+        <v>46200</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="0">
@@ -21725,6 +24071,9 @@
       <c r="H782" s="0">
         <v>0.54740220308303833</v>
       </c>
+      <c r="I782" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="0">
@@ -21751,6 +24100,9 @@
       <c r="H783" s="0">
         <v>0.4087466299533844</v>
       </c>
+      <c r="I783" s="0">
+        <v>66597</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="0">
@@ -21777,6 +24129,9 @@
       <c r="H784" s="0">
         <v>0.038255911320447922</v>
       </c>
+      <c r="I784" s="0">
+        <v>59450</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="0">
@@ -21803,6 +24158,9 @@
       <c r="H785" s="0">
         <v>0.0055952304974198341</v>
       </c>
+      <c r="I785" s="0">
+        <v>70259</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="0">
@@ -21829,6 +24187,9 @@
       <c r="H786" s="0">
         <v>0.71480870246887207</v>
       </c>
+      <c r="I786" s="0">
+        <v>38236</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="0">
@@ -21855,6 +24216,9 @@
       <c r="H787" s="0">
         <v>0.24347266554832458</v>
       </c>
+      <c r="I787" s="0">
+        <v>45398</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="0">
@@ -21881,6 +24245,9 @@
       <c r="H788" s="0">
         <v>0.038339301943778992</v>
       </c>
+      <c r="I788" s="0">
+        <v>34447</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="0">
@@ -21907,6 +24274,9 @@
       <c r="H789" s="0">
         <v>0.0033793298061937094</v>
       </c>
+      <c r="I789" s="0">
+        <v>58453</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="0">
@@ -21933,6 +24303,9 @@
       <c r="H790" s="0">
         <v>0.63347399234771729</v>
       </c>
+      <c r="I790" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="0">
@@ -21959,6 +24332,9 @@
       <c r="H791" s="0">
         <v>0.3199249804019928</v>
       </c>
+      <c r="I791" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="0">
@@ -21985,6 +24361,9 @@
       <c r="H792" s="0">
         <v>0.04181903600692749</v>
       </c>
+      <c r="I792" s="0">
+        <v>50000</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="0">
@@ -22011,6 +24390,9 @@
       <c r="H793" s="0">
         <v>0.0047819972969591618</v>
       </c>
+      <c r="I793" s="0">
+        <v>70259</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="0">
@@ -22037,6 +24419,9 @@
       <c r="H794" s="0">
         <v>0.6460302472114563</v>
       </c>
+      <c r="I794" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="0">
@@ -22063,6 +24448,9 @@
       <c r="H795" s="0">
         <v>0.30168622732162476</v>
       </c>
+      <c r="I795" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="0">
@@ -22089,6 +24477,9 @@
       <c r="H796" s="0">
         <v>0.038572072982788086</v>
       </c>
+      <c r="I796" s="0">
+        <v>47592</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="0">
@@ -22115,6 +24506,9 @@
       <c r="H797" s="0">
         <v>0.013711436651647091</v>
       </c>
+      <c r="I797" s="0">
+        <v>40000</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="0">
@@ -22141,6 +24535,9 @@
       <c r="H798" s="0">
         <v>0.56846708059310913</v>
       </c>
+      <c r="I798" s="0">
+        <v>60791</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="0">
@@ -22167,6 +24564,9 @@
       <c r="H799" s="0">
         <v>0.3893115222454071</v>
       </c>
+      <c r="I799" s="0">
+        <v>75000</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="0">
@@ -22193,6 +24593,9 @@
       <c r="H800" s="0">
         <v>0.036135412752628326</v>
       </c>
+      <c r="I800" s="0">
+        <v>75920</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="0">
@@ -22219,6 +24622,9 @@
       <c r="H801" s="0">
         <v>0.006085964385420084</v>
       </c>
+      <c r="I801" s="0">
+        <v>80000</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="0">
@@ -22245,6 +24651,9 @@
       <c r="H802" s="0">
         <v>0.71692049503326416</v>
       </c>
+      <c r="I802" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="0">
@@ -22271,6 +24680,9 @@
       <c r="H803" s="0">
         <v>0.24041730165481567</v>
       </c>
+      <c r="I803" s="0">
+        <v>61190</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="0">
@@ -22297,6 +24709,9 @@
       <c r="H804" s="0">
         <v>0.040706068277359009</v>
       </c>
+      <c r="I804" s="0">
+        <v>72521</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="0">
@@ -22323,6 +24738,9 @@
       <c r="H805" s="0">
         <v>0.0019561268854886293</v>
       </c>
+      <c r="I805" s="0">
+        <v>121062</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="0">
@@ -22349,6 +24767,9 @@
       <c r="H806" s="0">
         <v>0.78075176477432251</v>
       </c>
+      <c r="I806" s="0">
+        <v>33413</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="0">
@@ -22375,6 +24796,9 @@
       <c r="H807" s="0">
         <v>0.16629251837730408</v>
       </c>
+      <c r="I807" s="0">
+        <v>37832</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="0">
@@ -22401,6 +24825,9 @@
       <c r="H808" s="0">
         <v>0.034421227872371674</v>
       </c>
+      <c r="I808" s="0">
+        <v>33994</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="0">
@@ -22427,6 +24854,9 @@
       <c r="H809" s="0">
         <v>0.018534507602453232</v>
       </c>
+      <c r="I809" s="0">
+        <v>11691</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="0">
@@ -22453,6 +24883,9 @@
       <c r="H810" s="0">
         <v>0.69443953037261963</v>
       </c>
+      <c r="I810" s="0">
+        <v>37470</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="0">
@@ -22479,6 +24912,9 @@
       <c r="H811" s="0">
         <v>0.26471889019012451</v>
       </c>
+      <c r="I811" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="0">
@@ -22505,6 +24941,9 @@
       <c r="H812" s="0">
         <v>0.039051450788974762</v>
       </c>
+      <c r="I812" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="0">
@@ -22531,6 +24970,9 @@
       <c r="H813" s="0">
         <v>0.0017901343526318669</v>
       </c>
+      <c r="I813" s="0">
+        <v>28705</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="0">
@@ -22557,6 +24999,9 @@
       <c r="H814" s="0">
         <v>0.56383723020553589</v>
       </c>
+      <c r="I814" s="0">
+        <v>54000</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="0">
@@ -22583,6 +25028,9 @@
       <c r="H815" s="0">
         <v>0.39859762787818909</v>
       </c>
+      <c r="I815" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="0">
@@ -22609,6 +25057,9 @@
       <c r="H816" s="0">
         <v>0.033330895006656647</v>
       </c>
+      <c r="I816" s="0">
+        <v>58923</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="0">
@@ -22635,6 +25086,9 @@
       <c r="H817" s="0">
         <v>0.004234235268086195</v>
       </c>
+      <c r="I817" s="0">
+        <v>55000</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="0">
@@ -22661,6 +25115,9 @@
       <c r="H818" s="0">
         <v>0.69571250677108765</v>
       </c>
+      <c r="I818" s="0">
+        <v>43059</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="0">
@@ -22687,6 +25144,9 @@
       <c r="H819" s="0">
         <v>0.26480183005332947</v>
       </c>
+      <c r="I819" s="0">
+        <v>48000</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="0">
@@ -22713,6 +25173,9 @@
       <c r="H820" s="0">
         <v>0.034782975912094116</v>
       </c>
+      <c r="I820" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="0">
@@ -22739,6 +25202,9 @@
       <c r="H821" s="0">
         <v>0.0047026923857629299</v>
       </c>
+      <c r="I821" s="0">
+        <v>43255</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="0">
@@ -22765,6 +25231,9 @@
       <c r="H822" s="0">
         <v>0.64013087749481201</v>
       </c>
+      <c r="I822" s="0">
+        <v>44424</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="0">
@@ -22791,6 +25260,9 @@
       <c r="H823" s="0">
         <v>0.31586179137229919</v>
       </c>
+      <c r="I823" s="0">
+        <v>45929</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="0">
@@ -22817,6 +25289,9 @@
       <c r="H824" s="0">
         <v>0.038456670939922333</v>
       </c>
+      <c r="I824" s="0">
+        <v>56657</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="0">
@@ -22843,6 +25318,9 @@
       <c r="H825" s="0">
         <v>0.0055506336502730846</v>
       </c>
+      <c r="I825" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="0">
@@ -22869,6 +25347,9 @@
       <c r="H826" s="0">
         <v>0.58554518222808838</v>
       </c>
+      <c r="I826" s="0">
+        <v>68893</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="0">
@@ -22895,6 +25376,9 @@
       <c r="H827" s="0">
         <v>0.34876838326454163</v>
       </c>
+      <c r="I827" s="0">
+        <v>67017</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="0">
@@ -22921,6 +25405,9 @@
       <c r="H828" s="0">
         <v>0.03370250016450882</v>
       </c>
+      <c r="I828" s="0">
+        <v>84986</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="0">
@@ -22947,6 +25434,9 @@
       <c r="H829" s="0">
         <v>0.031983960419893265</v>
       </c>
+      <c r="I829" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="0">
@@ -22973,6 +25463,9 @@
       <c r="H830" s="0">
         <v>0.64059752225875854</v>
       </c>
+      <c r="I830" s="0">
+        <v>66597</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="0">
@@ -22999,6 +25492,9 @@
       <c r="H831" s="0">
         <v>0.31794199347496033</v>
       </c>
+      <c r="I831" s="0">
+        <v>75664</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="0">
@@ -23025,6 +25521,9 @@
       <c r="H832" s="0">
         <v>0.035597871989011765</v>
       </c>
+      <c r="I832" s="0">
+        <v>84986</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="0">
@@ -23051,6 +25550,9 @@
       <c r="H833" s="0">
         <v>0.0058626267127692699</v>
       </c>
+      <c r="I833" s="0">
+        <v>63152</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="0">
@@ -23077,6 +25579,9 @@
       <c r="H834" s="0">
         <v>0.74018311500549316</v>
       </c>
+      <c r="I834" s="0">
+        <v>32427</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="0">
@@ -23103,6 +25608,9 @@
       <c r="H835" s="0">
         <v>0.22281840443611145</v>
       </c>
+      <c r="I835" s="0">
+        <v>34589</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="0">
@@ -23129,6 +25637,9 @@
       <c r="H836" s="0">
         <v>0.031899843364953995</v>
       </c>
+      <c r="I836" s="0">
+        <v>33994</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="0">
@@ -23155,6 +25666,9 @@
       <c r="H837" s="0">
         <v>0.0050986357964575291</v>
       </c>
+      <c r="I837" s="0">
+        <v>45326</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="0">
@@ -23181,6 +25695,9 @@
       <c r="H838" s="0">
         <v>0.62550538778305054</v>
       </c>
+      <c r="I838" s="0">
+        <v>44200</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="0">
@@ -23207,6 +25724,9 @@
       <c r="H839" s="0">
         <v>0.32942351698875427</v>
       </c>
+      <c r="I839" s="0">
+        <v>50270</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="0">
@@ -23233,6 +25753,9 @@
       <c r="H840" s="0">
         <v>0.031444970518350601</v>
       </c>
+      <c r="I840" s="0">
+        <v>44206.5</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="0">
@@ -23259,6 +25782,9 @@
       <c r="H841" s="0">
         <v>0.013626154512166977</v>
       </c>
+      <c r="I841" s="0">
+        <v>86116</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="0">
@@ -23285,6 +25811,9 @@
       <c r="H842" s="0">
         <v>0.67738783359527588</v>
       </c>
+      <c r="I842" s="0">
+        <v>49101</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="0">
@@ -23311,6 +25840,9 @@
       <c r="H843" s="0">
         <v>0.28857520222663879</v>
       </c>
+      <c r="I843" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="0">
@@ -23337,6 +25869,9 @@
       <c r="H844" s="0">
         <v>0.028839049860835075</v>
       </c>
+      <c r="I844" s="0">
+        <v>48101</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="0">
@@ -23363,6 +25898,9 @@
       <c r="H845" s="0">
         <v>0.0051978891715407372</v>
       </c>
+      <c r="I845" s="0">
+        <v>43236</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="0">
@@ -23389,6 +25927,9 @@
       <c r="H846" s="0">
         <v>0.71905732154846191</v>
       </c>
+      <c r="I846" s="0">
+        <v>54046</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="0">
@@ -23415,6 +25956,9 @@
       <c r="H847" s="0">
         <v>0.24795952439308167</v>
       </c>
+      <c r="I847" s="0">
+        <v>57411</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="0">
@@ -23441,6 +25985,9 @@
       <c r="H848" s="0">
         <v>0.02910715714097023</v>
       </c>
+      <c r="I848" s="0">
+        <v>58453</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="0">
@@ -23467,6 +26014,9 @@
       <c r="H849" s="0">
         <v>0.0038759850431233644</v>
       </c>
+      <c r="I849" s="0">
+        <v>61000</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="0">
@@ -23493,6 +26043,9 @@
       <c r="H850" s="0">
         <v>0.65472638607025146</v>
       </c>
+      <c r="I850" s="0">
+        <v>35595</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="0">
@@ -23519,6 +26072,9 @@
       <c r="H851" s="0">
         <v>0.31542289257049561</v>
       </c>
+      <c r="I851" s="0">
+        <v>51670</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="0">
@@ -23545,6 +26101,9 @@
       <c r="H852" s="0">
         <v>0.024733476340770721</v>
       </c>
+      <c r="I852" s="0">
+        <v>89000</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="0">
@@ -23571,6 +26130,9 @@
       <c r="H853" s="0">
         <v>0.0051172706298530102</v>
       </c>
+      <c r="I853" s="0">
+        <v>72421</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="0">
@@ -23597,6 +26159,9 @@
       <c r="H854" s="0">
         <v>0.64965814352035522</v>
       </c>
+      <c r="I854" s="0">
+        <v>46762</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="0">
@@ -23623,6 +26188,9 @@
       <c r="H855" s="0">
         <v>0.32043066620826721</v>
       </c>
+      <c r="I855" s="0">
+        <v>51445</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="0">
@@ -23649,6 +26217,9 @@
       <c r="H856" s="0">
         <v>0.024374576285481453</v>
       </c>
+      <c r="I856" s="0">
+        <v>50991</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="0">
@@ -23675,6 +26246,9 @@
       <c r="H857" s="0">
         <v>0.0055366223677992821</v>
       </c>
+      <c r="I857" s="0">
+        <v>51670</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="0">
@@ -23701,6 +26275,9 @@
       <c r="H858" s="0">
         <v>0.60676378011703491</v>
       </c>
+      <c r="I858" s="0">
+        <v>43059</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="0">
@@ -23727,6 +26304,9 @@
       <c r="H859" s="0">
         <v>0.36598309874534607</v>
       </c>
+      <c r="I859" s="0">
+        <v>45000</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="0">
@@ -23753,6 +26333,9 @@
       <c r="H860" s="0">
         <v>0.02077711746096611</v>
       </c>
+      <c r="I860" s="0">
+        <v>40188</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="0">
@@ -23779,6 +26362,9 @@
       <c r="H861" s="0">
         <v>0.006475985050201416</v>
       </c>
+      <c r="I861" s="0">
+        <v>40917</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="0">
@@ -23805,6 +26391,9 @@
       <c r="H862" s="0">
         <v>0.67513120174407959</v>
       </c>
+      <c r="I862" s="0">
+        <v>33994</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="0">
@@ -23831,6 +26420,9 @@
       <c r="H863" s="0">
         <v>0.30032628774642944</v>
       </c>
+      <c r="I863" s="0">
+        <v>44317</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="0">
@@ -23857,6 +26449,9 @@
       <c r="H864" s="0">
         <v>0.014612001366913319</v>
       </c>
+      <c r="I864" s="0">
+        <v>15198</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="0">
@@ -23883,6 +26478,9 @@
       <c r="H865" s="0">
         <v>0.0099304867908358574</v>
       </c>
+      <c r="I865" s="0">
+        <v>21816</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
